--- a/output/DEG/Filter_DEG_Run32_Day20_WT_KO.xlsx
+++ b/output/DEG/Filter_DEG_Run32_Day20_WT_KO.xlsx
@@ -1067,19 +1067,19 @@
         <v>129.914196514845</v>
       </c>
       <c r="B2" t="n">
-        <v>1.54578895446352</v>
+        <v>1.54578904663105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.244095213226188</v>
+        <v>0.244097858840812</v>
       </c>
       <c r="D2" t="n">
-        <v>6.33272948712488</v>
+        <v>6.33266122845894</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000000000240861648117539</v>
+        <v>0.000000000240968267321388</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0000000389504287000373</v>
+        <v>0.000000038967670397626</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -1090,19 +1090,19 @@
         <v>412.486400896522</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.79858772073396</v>
+        <v>-1.79858736872387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3746048240957</v>
+        <v>0.374582295706847</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.80129353666433</v>
+        <v>-4.80158135965792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00000157643988515036</v>
+        <v>0.00000157417526078116</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0000916298670610708</v>
+        <v>0.0000914982367770061</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -1113,19 +1113,19 @@
         <v>61.2437785163507</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.27573661039517</v>
+        <v>-6.27573575743256</v>
       </c>
       <c r="C4" t="n">
-        <v>0.687213644511168</v>
+        <v>0.687208116586861</v>
       </c>
       <c r="D4" t="n">
-        <v>-9.13214785608523</v>
+        <v>-9.13222007417797</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0000000000000000000671535187607421</v>
+        <v>0.0000000000000000000671087263393753</v>
       </c>
       <c r="F4" t="n">
-        <v>0.000000000000000043872736876768</v>
+        <v>0.0000000000000000438434730920406</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -1136,19 +1136,19 @@
         <v>287.27006363892</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.11213982073753</v>
+        <v>-5.1121404010473</v>
       </c>
       <c r="C5" t="n">
-        <v>0.401953369115356</v>
+        <v>0.401934961327529</v>
       </c>
       <c r="D5" t="n">
-        <v>-12.7182410038972</v>
+        <v>-12.7188249167544</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00000000000000000000000000000000000046828328028316</v>
+        <v>0.000000000000000000000000000000000000464797365772328</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00000000000000000000000000000000109263868812355</v>
+        <v>0.00000000000000000000000000000000108450505359421</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1159,19 +1159,19 @@
         <v>137.976802104808</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.26525844436955</v>
+        <v>-2.26525846903821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.277462682419635</v>
+        <v>0.277461042662638</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.16419139545246</v>
+        <v>-8.16423973362095</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000000000000000323595480717254</v>
+        <v>0.000000000000000323465939560537</v>
       </c>
       <c r="F6" t="n">
-        <v>0.000000000000139086447014603</v>
+        <v>0.000000000000139030768180059</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -1182,19 +1182,19 @@
         <v>143.642005431282</v>
       </c>
       <c r="B7" t="n">
-        <v>1.74529341983729</v>
+        <v>1.74529286286391</v>
       </c>
       <c r="C7" t="n">
-        <v>0.472871847910182</v>
+        <v>0.472847864190114</v>
       </c>
       <c r="D7" t="n">
-        <v>3.69083807283192</v>
+        <v>3.6910241010673</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000223516399372082</v>
+        <v>0.000223352970760999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.00585047011369265</v>
+        <v>0.00584619242217851</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -1205,19 +1205,19 @@
         <v>70.0433811462275</v>
       </c>
       <c r="B8" t="n">
-        <v>1.0499397409022</v>
+        <v>1.04994017099068</v>
       </c>
       <c r="C8" t="n">
-        <v>0.265944493603669</v>
+        <v>0.265954340215802</v>
       </c>
       <c r="D8" t="n">
-        <v>3.94796570771233</v>
+        <v>3.94782115658925</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0000788180910684453</v>
+        <v>0.0000788656831265657</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00256441410641617</v>
+        <v>0.00256596255479322</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1228,19 +1228,19 @@
         <v>4200.3591049758</v>
       </c>
       <c r="B9" t="n">
-        <v>1.37963506211423</v>
+        <v>1.37963506211424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.448751070244036</v>
+        <v>0.448751070244039</v>
       </c>
       <c r="D9" t="n">
-        <v>3.07438834934471</v>
+        <v>3.0743883493447</v>
       </c>
       <c r="E9" t="n">
-        <v>0.00210934658464268</v>
+        <v>0.00210934658464274</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0346250831828833</v>
+        <v>0.0346250831828843</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -1251,19 +1251,19 @@
         <v>61.1893980817914</v>
       </c>
       <c r="B10" t="n">
-        <v>-3.33156133582661</v>
+        <v>-3.33156130234958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.424383952644741</v>
+        <v>0.424381029845536</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.85034710917902</v>
+        <v>-7.85040109724552</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0000000000000041488737394496</v>
+        <v>0.00000000000000414708804743773</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00000000000154008079060069</v>
+        <v>0.0000000000015394179336091</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1274,19 +1274,19 @@
         <v>92.6754790280741</v>
       </c>
       <c r="B11" t="n">
-        <v>1.27967578732621</v>
+        <v>1.27967577778274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.284735988829506</v>
+        <v>0.284738668849771</v>
       </c>
       <c r="D11" t="n">
-        <v>4.49425375621363</v>
+        <v>4.494211421835</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00000698143374360154</v>
+        <v>0.00000698282262702962</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0003167437703729</v>
+        <v>0.00031680678324243</v>
       </c>
       <c r="G11" t="s">
         <v>16</v>
@@ -1297,19 +1297,19 @@
         <v>131.298346421673</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.72427936501056</v>
+        <v>-1.72427947240478</v>
       </c>
       <c r="C12" t="n">
-        <v>0.29610099896802</v>
+        <v>0.296097405904081</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.82328114737902</v>
+        <v>-5.82335217405906</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00000000577033621570858</v>
+        <v>0.0000000057678833271629</v>
       </c>
       <c r="F12" t="n">
-        <v>0.000000611992866306288</v>
+        <v>0.000000611732716769816</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1320,19 +1320,19 @@
         <v>145.581339184695</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.76315793235149</v>
+        <v>-1.76315757373877</v>
       </c>
       <c r="C13" t="n">
-        <v>0.350586120909737</v>
+        <v>0.35057455151782</v>
       </c>
       <c r="D13" t="n">
-        <v>-5.02917208409809</v>
+        <v>-5.02933703004153</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000000492602152935805</v>
+        <v>0.000000492178617858573</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0000351339343401769</v>
+        <v>0.00003510372648683</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>
@@ -1343,19 +1343,19 @@
         <v>2070.79693775256</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.16864012697621</v>
+        <v>-1.16864008655838</v>
       </c>
       <c r="C14" t="n">
-        <v>0.312758452745272</v>
+        <v>0.312737106973707</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.73655809049554</v>
+        <v>-3.73681299883813</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000186556365495062</v>
+        <v>0.000186367420003069</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00506992532051721</v>
+        <v>0.00506479046740453</v>
       </c>
       <c r="G14" t="s">
         <v>19</v>
@@ -1366,19 +1366,19 @@
         <v>83.6810228873176</v>
       </c>
       <c r="B15" t="n">
-        <v>1.09393600655119</v>
+        <v>1.09393666480506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.214910732746279</v>
+        <v>0.214924786779564</v>
       </c>
       <c r="D15" t="n">
-        <v>5.09018787741365</v>
+        <v>5.08985809034229</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000000357708917907011</v>
+        <v>0.000000358331577231084</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0000264364694849557</v>
+        <v>0.000026482487108214</v>
       </c>
       <c r="G15" t="s">
         <v>20</v>
@@ -1389,19 +1389,19 @@
         <v>212.245504392783</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.4497025353093</v>
+        <v>-1.44970256341759</v>
       </c>
       <c r="C16" t="n">
-        <v>0.276835268293854</v>
+        <v>0.276828984233679</v>
       </c>
       <c r="D16" t="n">
-        <v>-5.2366974202524</v>
+        <v>-5.23681639561939</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000000163475367266366</v>
+        <v>0.000000163370066127335</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0000127144913026741</v>
+        <v>0.0000127063013812274</v>
       </c>
       <c r="G16" t="s">
         <v>21</v>
@@ -1412,19 +1412,19 @@
         <v>745.552333357956</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.80639955366408</v>
+        <v>-1.80639961488498</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191004150521642</v>
+        <v>0.190999329504576</v>
       </c>
       <c r="D17" t="n">
-        <v>-9.45738377271235</v>
+        <v>-9.45762280721359</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00000000000000000000315744135974914</v>
+        <v>0.0000000000000000000031502335567422</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00000000000000000271423630151488</v>
+        <v>0.00000000000000000270804024643528</v>
       </c>
       <c r="G17" t="s">
         <v>22</v>
@@ -1435,19 +1435,19 @@
         <v>377.733558966803</v>
       </c>
       <c r="B18" t="n">
-        <v>-1.4000019870126</v>
+        <v>-1.40000181491633</v>
       </c>
       <c r="C18" t="n">
-        <v>0.281497593149445</v>
+        <v>0.281485867107661</v>
       </c>
       <c r="D18" t="n">
-        <v>-4.97340659772301</v>
+        <v>-4.97361316680552</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000000657864774976591</v>
+        <v>0.00000065716381284189</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0000442177175707517</v>
+        <v>0.0000441706031075992</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
@@ -1458,19 +1458,19 @@
         <v>3299.71424741033</v>
       </c>
       <c r="B19" t="n">
-        <v>-1.01958396568191</v>
+        <v>-1.01958394594871</v>
       </c>
       <c r="C19" t="n">
-        <v>0.171074594422281</v>
+        <v>0.1710689171888</v>
       </c>
       <c r="D19" t="n">
-        <v>-5.95987948488231</v>
+        <v>-5.96007715898174</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00000000252424022177293</v>
+        <v>0.00000000252118861526864</v>
       </c>
       <c r="F19" t="n">
-        <v>0.000000309988086783588</v>
+        <v>0.000000309613335738215</v>
       </c>
       <c r="G19" t="s">
         <v>24</v>
@@ -1481,19 +1481,19 @@
         <v>83.911346543358</v>
       </c>
       <c r="B20" t="n">
-        <v>1.87861049734524</v>
+        <v>1.8786100289327</v>
       </c>
       <c r="C20" t="n">
-        <v>0.555923199286046</v>
+        <v>0.555897199981333</v>
       </c>
       <c r="D20" t="n">
-        <v>3.37926263872039</v>
+        <v>3.37941984416504</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000726805382187545</v>
+        <v>0.000726389856748082</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0154368170445633</v>
+        <v>0.015430943566185</v>
       </c>
       <c r="G20" t="s">
         <v>25</v>
@@ -1504,19 +1504,19 @@
         <v>274.091770680435</v>
       </c>
       <c r="B21" t="n">
-        <v>-1.32025231207526</v>
+        <v>-1.3202522927533</v>
       </c>
       <c r="C21" t="n">
-        <v>0.191481786764621</v>
+        <v>0.191482717364349</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.89492371250001</v>
+        <v>-6.89489010248977</v>
       </c>
       <c r="E21" t="n">
-        <v>0.00000000000538937169853364</v>
+        <v>0.00000000000539064603777409</v>
       </c>
       <c r="F21" t="n">
-        <v>0.000000001173661439362</v>
+        <v>0.00000000117393895646619</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1527,19 +1527,19 @@
         <v>180.774285803491</v>
       </c>
       <c r="B22" t="n">
-        <v>-2.33795119090543</v>
+        <v>-2.33795051686184</v>
       </c>
       <c r="C22" t="n">
-        <v>0.39401676197406</v>
+        <v>0.393997939660703</v>
       </c>
       <c r="D22" t="n">
-        <v>-5.93363383626644</v>
+        <v>-5.933915590714</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00000000296302251143968</v>
+        <v>0.00000000295793944819123</v>
       </c>
       <c r="F22" t="n">
-        <v>0.000000355845931465767</v>
+        <v>0.000000355235477994907</v>
       </c>
       <c r="G22" t="s">
         <v>27</v>
@@ -1550,19 +1550,19 @@
         <v>340.367056162338</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.85075238679701</v>
+        <v>-1.85075258286119</v>
       </c>
       <c r="C23" t="n">
-        <v>0.161920123887183</v>
+        <v>0.161923649743639</v>
       </c>
       <c r="D23" t="n">
-        <v>-11.4300331692342</v>
+        <v>-11.4297854932947</v>
       </c>
       <c r="E23" t="n">
-        <v>0.00000000000000000000000000000295995736165643</v>
+        <v>0.00000000000000000000000000000296841199000461</v>
       </c>
       <c r="F23" t="n">
-        <v>0.00000000000000000000000000604312294849182</v>
+        <v>0.00000000000000000000000000606038412909316</v>
       </c>
       <c r="G23" t="s">
         <v>28</v>
@@ -1573,19 +1573,19 @@
         <v>343.567210900699</v>
       </c>
       <c r="B24" t="n">
-        <v>-1.07832844801814</v>
+        <v>-1.07832827485112</v>
       </c>
       <c r="C24" t="n">
-        <v>0.299743485821151</v>
+        <v>0.299730296783122</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.59750419617642</v>
+        <v>-3.59766191948013</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000321285314279096</v>
+        <v>0.000321090605643411</v>
       </c>
       <c r="F24" t="n">
-        <v>0.00784387599121147</v>
+        <v>0.00783912236468434</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
@@ -1596,19 +1596,19 @@
         <v>93.5642162976161</v>
       </c>
       <c r="B25" t="n">
-        <v>1.3860874393142</v>
+        <v>1.38608753004709</v>
       </c>
       <c r="C25" t="n">
-        <v>0.276944693707791</v>
+        <v>0.276948285843019</v>
       </c>
       <c r="D25" t="n">
-        <v>5.00492506556808</v>
+        <v>5.00486047721112</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000000558837660043504</v>
+        <v>0.000000559025066073186</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0000384083751103056</v>
+        <v>0.0000383805911322214</v>
       </c>
       <c r="G25" t="s">
         <v>30</v>
@@ -1619,19 +1619,19 @@
         <v>101.419551015295</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.95681783997483</v>
+        <v>-1.95681714456172</v>
       </c>
       <c r="C26" t="n">
-        <v>0.404145046001453</v>
+        <v>0.404133116563902</v>
       </c>
       <c r="D26" t="n">
-        <v>-4.84187016353479</v>
+        <v>-4.84201136793576</v>
       </c>
       <c r="E26" t="n">
-        <v>0.00000128622799911118</v>
+        <v>0.000001285314088719</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0000772351540789814</v>
+        <v>0.0000771802757759095</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -1642,19 +1642,19 @@
         <v>822.36222279807</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.04008323808705</v>
+        <v>-1.04008313340685</v>
       </c>
       <c r="C27" t="n">
-        <v>0.210292938647759</v>
+        <v>0.210285453183527</v>
       </c>
       <c r="D27" t="n">
-        <v>-4.94587809165193</v>
+        <v>-4.946053650697</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000000758013882523311</v>
+        <v>0.000000757330943579465</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0000501240515921184</v>
+        <v>0.0000500788919088397</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -1665,19 +1665,19 @@
         <v>80.4794634024591</v>
       </c>
       <c r="B28" t="n">
-        <v>-3.23679274370683</v>
+        <v>-3.23679081734551</v>
       </c>
       <c r="C28" t="n">
-        <v>0.526437123087765</v>
+        <v>0.526409759560071</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.14848877815026</v>
+        <v>-6.14880472590507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000000000782246606862172</v>
+        <v>0.000000000780690218811084</v>
       </c>
       <c r="F28" t="n">
-        <v>0.000000111099424607651</v>
+        <v>0.000000110909361805649</v>
       </c>
       <c r="G28" t="s">
         <v>33</v>
@@ -1688,19 +1688,19 @@
         <v>145.525222221947</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.37622565360231</v>
+        <v>-1.37622540861568</v>
       </c>
       <c r="C29" t="n">
-        <v>0.337264573876731</v>
+        <v>0.33725501876918</v>
       </c>
       <c r="D29" t="n">
-        <v>-4.08055206564716</v>
+        <v>-4.08066694941486</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0000449288637204491</v>
+        <v>0.0000449066613766451</v>
       </c>
       <c r="F29" t="n">
-        <v>0.00157811426052924</v>
+        <v>0.00157733440917149</v>
       </c>
       <c r="G29" t="s">
         <v>34</v>
@@ -1711,19 +1711,19 @@
         <v>245.57540148427</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.08717537977117</v>
+        <v>-1.08717543336727</v>
       </c>
       <c r="C30" t="n">
-        <v>0.229474033430398</v>
+        <v>0.229471407388347</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.7376836652018</v>
+        <v>-4.73773811622371</v>
       </c>
       <c r="E30" t="n">
-        <v>0.00000216174906807604</v>
+        <v>0.00000216116846428388</v>
       </c>
       <c r="F30" t="n">
-        <v>0.000115385122643418</v>
+        <v>0.000115354132441662</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1734,19 +1734,19 @@
         <v>1409.31335489464</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.19765820612332</v>
+        <v>-1.19765811780092</v>
       </c>
       <c r="C31" t="n">
-        <v>0.305282548349926</v>
+        <v>0.305263008080541</v>
       </c>
       <c r="D31" t="n">
-        <v>-3.9231138910388</v>
+        <v>-3.92336472516488</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0000874118035603749</v>
+        <v>0.0000873208041981333</v>
       </c>
       <c r="F31" t="n">
-        <v>0.00277762059834942</v>
+        <v>0.00277472897853718</v>
       </c>
       <c r="G31" t="s">
         <v>36</v>
@@ -1757,19 +1757,19 @@
         <v>54.0200121963548</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.75978830204737</v>
+        <v>-1.75978820674926</v>
       </c>
       <c r="C32" t="n">
-        <v>0.42597623753443</v>
+        <v>0.42597324330753</v>
       </c>
       <c r="D32" t="n">
-        <v>-4.13118889502642</v>
+        <v>-4.13121771002594</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0000360891867611417</v>
+        <v>0.0000360846625662729</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00131572474859314</v>
+        <v>0.00131555980735476</v>
       </c>
       <c r="G32" t="s">
         <v>37</v>
@@ -1780,19 +1780,19 @@
         <v>253.011536286387</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.01308341363042</v>
+        <v>-1.01308347451051</v>
       </c>
       <c r="C33" t="n">
-        <v>0.19662694870167</v>
+        <v>0.196627936389403</v>
       </c>
       <c r="D33" t="n">
-        <v>-5.15231213381391</v>
+        <v>-5.15228656269978</v>
       </c>
       <c r="E33" t="n">
-        <v>0.000000257294319803482</v>
+        <v>0.000000257329415842631</v>
       </c>
       <c r="F33" t="n">
-        <v>0.000019346856958453</v>
+        <v>0.0000193256566618846</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -1803,19 +1803,19 @@
         <v>385.98166144513</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.09386048521932</v>
+        <v>-1.09386048568206</v>
       </c>
       <c r="C34" t="n">
-        <v>0.335347740500021</v>
+        <v>0.33533040821442</v>
       </c>
       <c r="D34" t="n">
-        <v>-3.26186925723226</v>
+        <v>-3.26203785545931</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00110680178064278</v>
+        <v>0.00110614371021044</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0212675217449865</v>
+        <v>0.0212548767280789</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1826,19 +1826,19 @@
         <v>1875.05885178929</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.47190864892877</v>
+        <v>-1.47190867020032</v>
       </c>
       <c r="C35" t="n">
-        <v>0.270784388154666</v>
+        <v>0.270768105084353</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.43572197407499</v>
+        <v>-5.43604893841455</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0000000545749962514136</v>
+        <v>0.0000000544749987602393</v>
       </c>
       <c r="F35" t="n">
-        <v>0.00000481823466905048</v>
+        <v>0.00000480940624189724</v>
       </c>
       <c r="G35" t="s">
         <v>40</v>
@@ -1849,19 +1849,19 @@
         <v>98.3150146665014</v>
       </c>
       <c r="B36" t="n">
-        <v>1.96912910573028</v>
+        <v>1.9691294639765</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258755658301745</v>
+        <v>0.258761640281446</v>
       </c>
       <c r="D36" t="n">
-        <v>7.6099943810079</v>
+        <v>7.60981983973648</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0000000000000274107839330764</v>
+        <v>0.0000000000000274478257679933</v>
       </c>
       <c r="F36" t="n">
-        <v>0.00000000000913674150977422</v>
+        <v>0.00000000000914908853609459</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -1872,19 +1872,19 @@
         <v>843.997734741063</v>
       </c>
       <c r="B37" t="n">
-        <v>1.02246402528833</v>
+        <v>1.02246393741797</v>
       </c>
       <c r="C37" t="n">
-        <v>0.300903828766685</v>
+        <v>0.300886191950077</v>
       </c>
       <c r="D37" t="n">
-        <v>3.39797612240131</v>
+        <v>3.39817500693956</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000678863449618879</v>
+        <v>0.000678370094311693</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0145701402399805</v>
+        <v>0.0145595515773888</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
@@ -1895,19 +1895,19 @@
         <v>3554.91566553196</v>
       </c>
       <c r="B38" t="n">
-        <v>1.20038638583765</v>
+        <v>1.20038636300983</v>
       </c>
       <c r="C38" t="n">
-        <v>0.252354141123832</v>
+        <v>0.252339115170712</v>
       </c>
       <c r="D38" t="n">
-        <v>4.75675326940091</v>
+        <v>4.75703642773632</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00000196731374659143</v>
+        <v>0.00000196455729022755</v>
       </c>
       <c r="F38" t="n">
-        <v>0.000107825957795563</v>
+        <v>0.000107674879937204</v>
       </c>
       <c r="G38" t="s">
         <v>43</v>
@@ -1918,19 +1918,19 @@
         <v>71.0902621173568</v>
       </c>
       <c r="B39" t="n">
-        <v>-1.81565132563508</v>
+        <v>-1.81565143182045</v>
       </c>
       <c r="C39" t="n">
-        <v>0.433337822512111</v>
+        <v>0.433328775843217</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.18992119153028</v>
+        <v>-4.19000891017994</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0000279051355030122</v>
+        <v>0.0000278943500865112</v>
       </c>
       <c r="F39" t="n">
-        <v>0.00104270237881126</v>
+        <v>0.00104255931341645</v>
       </c>
       <c r="G39" t="s">
         <v>44</v>
@@ -1941,19 +1941,19 @@
         <v>1065.84537957018</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.84731134904077</v>
+        <v>-1.84731117523395</v>
       </c>
       <c r="C40" t="n">
-        <v>0.278614253288411</v>
+        <v>0.27859826820207</v>
       </c>
       <c r="D40" t="n">
-        <v>-6.63035479067364</v>
+        <v>-6.63073459557215</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0000000000334880968675887</v>
+        <v>0.0000000000334020346087189</v>
       </c>
       <c r="F40" t="n">
-        <v>0.00000000651144150164674</v>
+        <v>0.00000000649470751505007</v>
       </c>
       <c r="G40" t="s">
         <v>45</v>
@@ -1964,19 +1964,19 @@
         <v>3236.47732847021</v>
       </c>
       <c r="B41" t="n">
-        <v>1.13630846799639</v>
+        <v>1.13630843244508</v>
       </c>
       <c r="C41" t="n">
-        <v>0.308163052421989</v>
+        <v>0.30814153233167</v>
       </c>
       <c r="D41" t="n">
-        <v>3.6873611520448</v>
+        <v>3.68761855582</v>
       </c>
       <c r="E41" t="n">
-        <v>0.000226591659134768</v>
+        <v>0.000226362636873085</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00590258623388863</v>
+        <v>0.00589662033181515</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -1987,19 +1987,19 @@
         <v>141.354492620478</v>
       </c>
       <c r="B42" t="n">
-        <v>-2.90277180577208</v>
+        <v>-2.9027711266556</v>
       </c>
       <c r="C42" t="n">
-        <v>0.346600611690131</v>
+        <v>0.346591236472901</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.37497600369852</v>
+        <v>-8.37520058555365</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0000000000000000552351252419269</v>
+        <v>0.0000000000000000551298926072515</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0000000000000265339794287174</v>
+        <v>0.0000000000000264834275280659</v>
       </c>
       <c r="G42" t="s">
         <v>47</v>
@@ -2010,19 +2010,19 @@
         <v>7945.41966506743</v>
       </c>
       <c r="B43" t="n">
-        <v>1.40144827893855</v>
+        <v>1.40144827893856</v>
       </c>
       <c r="C43" t="n">
-        <v>0.449912825491695</v>
+        <v>0.449912825491699</v>
       </c>
       <c r="D43" t="n">
-        <v>3.11493293707942</v>
+        <v>3.11493293707941</v>
       </c>
       <c r="E43" t="n">
-        <v>0.00183986735194114</v>
+        <v>0.00183986735194122</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0313680098739611</v>
+        <v>0.0313816863865703</v>
       </c>
       <c r="G43" t="s">
         <v>48</v>
@@ -2033,19 +2033,19 @@
         <v>99.3462661069239</v>
       </c>
       <c r="B44" t="n">
-        <v>-1.45706875736402</v>
+        <v>-1.45706883746503</v>
       </c>
       <c r="C44" t="n">
-        <v>0.384285209777942</v>
+        <v>0.384276238660698</v>
       </c>
       <c r="D44" t="n">
-        <v>-3.79163371446428</v>
+        <v>-3.79172244045923</v>
       </c>
       <c r="E44" t="n">
-        <v>0.000149659533695437</v>
+        <v>0.000149606064509647</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00423637636715352</v>
+        <v>0.00423486282779215</v>
       </c>
       <c r="G44" t="s">
         <v>49</v>
@@ -2056,19 +2056,19 @@
         <v>68.373666987269</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.58237877044537</v>
+        <v>-2.58237916808608</v>
       </c>
       <c r="C45" t="n">
-        <v>0.473358994549301</v>
+        <v>0.473346406544096</v>
       </c>
       <c r="D45" t="n">
-        <v>-5.45543403670639</v>
+        <v>-5.4555799566327</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0000000488533650987572</v>
+        <v>0.0000000488132601812928</v>
       </c>
       <c r="F45" t="n">
-        <v>0.00000436022957463389</v>
+        <v>0.00000435665015596205</v>
       </c>
       <c r="G45" t="s">
         <v>50</v>
@@ -2079,19 +2079,19 @@
         <v>56.1520354433846</v>
       </c>
       <c r="B46" t="n">
-        <v>-1.24250981178887</v>
+        <v>-1.2425102781292</v>
       </c>
       <c r="C46" t="n">
-        <v>0.331008628486229</v>
+        <v>0.331015960149741</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.75370822649286</v>
+        <v>-3.75362649452651</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000174237665007662</v>
+        <v>0.000174294514073817</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00479902830113009</v>
+        <v>0.00480059409505506</v>
       </c>
       <c r="G46" t="s">
         <v>51</v>
@@ -2102,19 +2102,19 @@
         <v>78.4847817272132</v>
       </c>
       <c r="B47" t="n">
-        <v>-2.40448475889618</v>
+        <v>-2.4044845927515</v>
       </c>
       <c r="C47" t="n">
-        <v>0.363790599754229</v>
+        <v>0.363788158040712</v>
       </c>
       <c r="D47" t="n">
-        <v>-6.60952965942664</v>
+        <v>-6.6095735652902</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0000000000385542974288725</v>
+        <v>0.000000000038542865204045</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00000000715576522620198</v>
+        <v>0.00000000715364337929167</v>
       </c>
       <c r="G47" t="s">
         <v>52</v>
@@ -2125,19 +2125,19 @@
         <v>83.3971575107165</v>
       </c>
       <c r="B48" t="n">
-        <v>-3.17750411306143</v>
+        <v>-3.17750418224801</v>
       </c>
       <c r="C48" t="n">
-        <v>0.418376969267485</v>
+        <v>0.418369639346272</v>
       </c>
       <c r="D48" t="n">
-        <v>-7.59483515219482</v>
+        <v>-7.594968380624</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0000000000000308184509535883</v>
+        <v>0.0000000000000307867600859546</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0000000000100671551884991</v>
+        <v>0.0000000000100568030496779</v>
       </c>
       <c r="G48" t="s">
         <v>53</v>
@@ -2148,19 +2148,19 @@
         <v>2298.12095115985</v>
       </c>
       <c r="B49" t="n">
-        <v>-1.08486337634293</v>
+        <v>-1.08486339225886</v>
       </c>
       <c r="C49" t="n">
-        <v>0.101860595410482</v>
+        <v>0.101863254789373</v>
       </c>
       <c r="D49" t="n">
-        <v>-10.6504715780533</v>
+        <v>-10.650193678791</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0000000000000000000000000173483967788343</v>
+        <v>0.000000000000000000000000017400265574786</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0000000000000000000000236126137157251</v>
+        <v>0.000000000000000000000023683211469415</v>
       </c>
       <c r="G49" t="s">
         <v>54</v>
@@ -2171,19 +2171,19 @@
         <v>66.0010834118215</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.51448105580687</v>
+        <v>-1.5144808490339</v>
       </c>
       <c r="C50" t="n">
-        <v>0.402187135899255</v>
+        <v>0.402182567521576</v>
       </c>
       <c r="D50" t="n">
-        <v>-3.76561287178076</v>
+        <v>-3.76565513111815</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000166141046962166</v>
+        <v>0.000166112946401079</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00461493489801541</v>
+        <v>0.00461415434280413</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
@@ -2194,19 +2194,19 @@
         <v>780.264912067185</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.49560414913714</v>
+        <v>-1.4956042399652</v>
       </c>
       <c r="C51" t="n">
-        <v>0.329699284044934</v>
+        <v>0.329678713858055</v>
       </c>
       <c r="D51" t="n">
-        <v>-4.53626750652364</v>
+        <v>-4.53655082083685</v>
       </c>
       <c r="E51" t="n">
-        <v>0.00000572585454418711</v>
+        <v>0.00000571817149213853</v>
       </c>
       <c r="F51" t="n">
-        <v>0.000266439835527658</v>
+        <v>0.000266082321883472</v>
       </c>
       <c r="G51" t="s">
         <v>56</v>
@@ -2217,19 +2217,19 @@
         <v>768.261154616711</v>
       </c>
       <c r="B52" t="n">
-        <v>1.04860417419027</v>
+        <v>1.04860417377557</v>
       </c>
       <c r="C52" t="n">
-        <v>0.146156449673894</v>
+        <v>0.146156587176824</v>
       </c>
       <c r="D52" t="n">
-        <v>7.1745323352471</v>
+        <v>7.17452558266805</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000000000000725547730348941</v>
+        <v>0.000000000000725583540141298</v>
       </c>
       <c r="F52" t="n">
-        <v>0.000000000179551076966504</v>
+        <v>0.000000000179559938804967</v>
       </c>
       <c r="G52" t="s">
         <v>57</v>
@@ -2240,19 +2240,19 @@
         <v>392.136860749502</v>
       </c>
       <c r="B53" t="n">
-        <v>1.03259473985897</v>
+        <v>1.03259463065975</v>
       </c>
       <c r="C53" t="n">
-        <v>0.243067673646615</v>
+        <v>0.243059957617633</v>
       </c>
       <c r="D53" t="n">
-        <v>4.24817798421117</v>
+        <v>4.24831239493657</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0000215516146702154</v>
+        <v>0.00002153869087024</v>
       </c>
       <c r="F53" t="n">
-        <v>0.000848198849177417</v>
+        <v>0.000847690212008748</v>
       </c>
       <c r="G53" t="s">
         <v>58</v>
@@ -2263,19 +2263,19 @@
         <v>1067.96110126432</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.65390542387981</v>
+        <v>-1.65390533334862</v>
       </c>
       <c r="C54" t="n">
-        <v>0.340988867697682</v>
+        <v>0.34096559781964</v>
       </c>
       <c r="D54" t="n">
-        <v>-4.85032087717933</v>
+        <v>-4.85065163149827</v>
       </c>
       <c r="E54" t="n">
-        <v>0.00000123261904512013</v>
+        <v>0.00000123056516357773</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0000748415125053793</v>
+        <v>0.000074716806010093</v>
       </c>
       <c r="G54" t="s">
         <v>59</v>
@@ -2286,19 +2286,19 @@
         <v>1377.9468765117</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.1718762273164</v>
+        <v>-1.17187613781052</v>
       </c>
       <c r="C55" t="n">
-        <v>0.251810405196214</v>
+        <v>0.251796785737816</v>
       </c>
       <c r="D55" t="n">
-        <v>-4.65380382674519</v>
+        <v>-4.6540551912793</v>
       </c>
       <c r="E55" t="n">
-        <v>0.00000325866850552951</v>
+        <v>0.00000325469623339942</v>
       </c>
       <c r="F55" t="n">
-        <v>0.000163263290493293</v>
+        <v>0.000163064274785622</v>
       </c>
       <c r="G55" t="s">
         <v>60</v>
@@ -2309,19 +2309,19 @@
         <v>295.407442515576</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.72775459297814</v>
+        <v>-1.72775494275602</v>
       </c>
       <c r="C56" t="n">
-        <v>0.15513253732622</v>
+        <v>0.155137566968914</v>
       </c>
       <c r="D56" t="n">
-        <v>-11.1372805651012</v>
+        <v>-11.1369217431534</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0000000000000000000000000000826032105334608</v>
+        <v>0.0000000000000000000000000000829366035613335</v>
       </c>
       <c r="F56" t="n">
-        <v>0.000000000000000000000000134915823764302</v>
+        <v>0.000000000000000000000000135460354596726</v>
       </c>
       <c r="G56" t="s">
         <v>61</v>
@@ -2332,19 +2332,19 @@
         <v>113.516885402516</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.03388448710704</v>
+        <v>-1.03388435538977</v>
       </c>
       <c r="C57" t="n">
-        <v>0.197139153252225</v>
+        <v>0.197149846243114</v>
       </c>
       <c r="D57" t="n">
-        <v>-5.24444013302756</v>
+        <v>-5.24415501757402</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000000156757593128582</v>
+        <v>0.00000015700016182739</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0000122503433902829</v>
+        <v>0.0000122692997278792</v>
       </c>
       <c r="G57" t="s">
         <v>62</v>
@@ -2355,19 +2355,19 @@
         <v>111.079184982595</v>
       </c>
       <c r="B58" t="n">
-        <v>-2.58224547739004</v>
+        <v>-2.58224442672222</v>
       </c>
       <c r="C58" t="n">
-        <v>0.408425340187231</v>
+        <v>0.408409481358538</v>
       </c>
       <c r="D58" t="n">
-        <v>-6.32244188425303</v>
+        <v>-6.32268481655375</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000000000257461867130229</v>
+        <v>0.000000000257057285416881</v>
       </c>
       <c r="F58" t="n">
-        <v>0.000000041226712508216</v>
+        <v>0.0000000411619278697443</v>
       </c>
       <c r="G58" t="s">
         <v>63</v>
@@ -2378,19 +2378,19 @@
         <v>79.4680881281454</v>
       </c>
       <c r="B59" t="n">
-        <v>1.35763636929009</v>
+        <v>1.35763614454308</v>
       </c>
       <c r="C59" t="n">
-        <v>0.358850437351217</v>
+        <v>0.358846934173171</v>
       </c>
       <c r="D59" t="n">
-        <v>3.78329306022647</v>
+        <v>3.78332936763482</v>
       </c>
       <c r="E59" t="n">
-        <v>0.00015476700695035</v>
+        <v>0.0001547444224496</v>
       </c>
       <c r="F59" t="n">
-        <v>0.00437337287979251</v>
+        <v>0.00437273469181543</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -2401,19 +2401,19 @@
         <v>149.961157378477</v>
       </c>
       <c r="B60" t="n">
-        <v>-1.22005343786043</v>
+        <v>-1.22005342861434</v>
       </c>
       <c r="C60" t="n">
-        <v>0.24854623737208</v>
+        <v>0.248546601433182</v>
       </c>
       <c r="D60" t="n">
-        <v>-4.90875842965984</v>
+        <v>-4.90875120230656</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000000916547929962217</v>
+        <v>0.000000916581702743092</v>
       </c>
       <c r="F60" t="n">
-        <v>0.000059169870909379</v>
+        <v>0.0000591720511893396</v>
       </c>
       <c r="G60" t="s">
         <v>65</v>
@@ -2424,19 +2424,19 @@
         <v>111.530530390416</v>
       </c>
       <c r="B61" t="n">
-        <v>-1.12051758734387</v>
+        <v>-1.12051817678764</v>
       </c>
       <c r="C61" t="n">
-        <v>0.207212329028129</v>
+        <v>0.207223805332596</v>
       </c>
       <c r="D61" t="n">
-        <v>-5.40758164632065</v>
+        <v>-5.40728501240098</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0000000638814246161283</v>
+        <v>0.000000063987277526024</v>
       </c>
       <c r="F61" t="n">
-        <v>0.00000549144899081697</v>
+        <v>0.00000550054844122395</v>
       </c>
       <c r="G61" t="s">
         <v>66</v>
@@ -2447,19 +2447,19 @@
         <v>860.342317514338</v>
       </c>
       <c r="B62" t="n">
-        <v>-1.37832090814258</v>
+        <v>-1.37832074679526</v>
       </c>
       <c r="C62" t="n">
-        <v>0.359287775930616</v>
+        <v>0.35926313131416</v>
       </c>
       <c r="D62" t="n">
-        <v>-3.83625884452232</v>
+        <v>-3.83652155386348</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000124922743996036</v>
+        <v>0.000124789248553377</v>
       </c>
       <c r="F62" t="n">
-        <v>0.00364350567444154</v>
+        <v>0.00363961213682555</v>
       </c>
       <c r="G62" t="s">
         <v>67</v>
@@ -2470,19 +2470,19 @@
         <v>472.298603514184</v>
       </c>
       <c r="B63" t="n">
-        <v>-1.77820704454287</v>
+        <v>-1.77820716813236</v>
       </c>
       <c r="C63" t="n">
-        <v>0.303093433302178</v>
+        <v>0.303077974719081</v>
       </c>
       <c r="D63" t="n">
-        <v>-5.8668610044416</v>
+        <v>-5.86716065322979</v>
       </c>
       <c r="E63" t="n">
-        <v>0.00000000444122675970307</v>
+        <v>0.00000000443321089728861</v>
       </c>
       <c r="F63" t="n">
-        <v>0.000000503739976848821</v>
+        <v>0.000000502830788787603</v>
       </c>
       <c r="G63" t="s">
         <v>68</v>
@@ -2493,19 +2493,19 @@
         <v>98.5408614351931</v>
       </c>
       <c r="B64" t="n">
-        <v>1.70622463829071</v>
+        <v>1.70622427062167</v>
       </c>
       <c r="C64" t="n">
-        <v>0.444447977328873</v>
+        <v>0.444431779013874</v>
       </c>
       <c r="D64" t="n">
-        <v>3.83897492018099</v>
+        <v>3.83911401297071</v>
       </c>
       <c r="E64" t="n">
-        <v>0.00012354904850924</v>
+        <v>0.000123479084987263</v>
       </c>
       <c r="F64" t="n">
-        <v>0.00362936440521837</v>
+        <v>0.00362730916384347</v>
       </c>
       <c r="G64" t="s">
         <v>69</v>
@@ -2516,19 +2516,19 @@
         <v>110.726437127867</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.44782464816889</v>
+        <v>-1.44782410791773</v>
       </c>
       <c r="C65" t="n">
-        <v>0.222707276240153</v>
+        <v>0.222715722340071</v>
       </c>
       <c r="D65" t="n">
-        <v>-6.50102085846379</v>
+        <v>-6.50077189300094</v>
       </c>
       <c r="E65" t="n">
-        <v>0.0000000000797767682396833</v>
+        <v>0.000000000079908921449548</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0000000141629777788994</v>
+        <v>0.0000000141864392829942</v>
       </c>
       <c r="G65" t="s">
         <v>70</v>
@@ -2539,19 +2539,19 @@
         <v>74.3475012038046</v>
       </c>
       <c r="B66" t="n">
-        <v>1.20359339272575</v>
+        <v>1.20359351598039</v>
       </c>
       <c r="C66" t="n">
-        <v>0.319496687317504</v>
+        <v>0.319498934294578</v>
       </c>
       <c r="D66" t="n">
-        <v>3.76715452930398</v>
+        <v>3.76712842137582</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000165118802877521</v>
+        <v>0.000165136065187451</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00459435333458015</v>
+        <v>0.00459483365026683</v>
       </c>
       <c r="G66" t="s">
         <v>71</v>
@@ -2562,19 +2562,19 @@
         <v>68.4597394869931</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.73466374861321</v>
+        <v>-1.7346637529921</v>
       </c>
       <c r="C67" t="n">
-        <v>0.359096579021159</v>
+        <v>0.359096448037275</v>
       </c>
       <c r="D67" t="n">
-        <v>-4.83063289920956</v>
+        <v>-4.83063467342356</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0000013609973455035</v>
+        <v>0.00000136098521691535</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0000808333441603949</v>
+        <v>0.0000808326238104667</v>
       </c>
       <c r="G67" t="s">
         <v>72</v>
@@ -2585,19 +2585,19 @@
         <v>295.696346208653</v>
       </c>
       <c r="B68" t="n">
-        <v>1.03226180810676</v>
+        <v>1.03226173486138</v>
       </c>
       <c r="C68" t="n">
-        <v>0.284066490150898</v>
+        <v>0.284056066672251</v>
       </c>
       <c r="D68" t="n">
-        <v>3.63387391296459</v>
+        <v>3.63400700064056</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000279197341936759</v>
+        <v>0.000279053284736831</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00693028903625089</v>
+        <v>0.00692671322128671</v>
       </c>
       <c r="G68" t="s">
         <v>73</v>
@@ -2611,16 +2611,16 @@
         <v>3.25187172275826</v>
       </c>
       <c r="C69" t="n">
-        <v>0.683185941661498</v>
+        <v>0.683185941661497</v>
       </c>
       <c r="D69" t="n">
-        <v>4.75986334679217</v>
+        <v>4.75986334679218</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0000019372407826431</v>
+        <v>0.00000193724078264304</v>
       </c>
       <c r="F69" t="n">
-        <v>0.000106926510837731</v>
+        <v>0.000107027773049606</v>
       </c>
       <c r="G69" t="s">
         <v>74</v>
@@ -2631,19 +2631,19 @@
         <v>746.514938455847</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.6908786046262</v>
+        <v>-2.69087860375514</v>
       </c>
       <c r="C70" t="n">
-        <v>0.150950861246256</v>
+        <v>0.150951113558514</v>
       </c>
       <c r="D70" t="n">
-        <v>-17.8261891479797</v>
+        <v>-17.8261593460326</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000442579217465592</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000442815137935891</v>
       </c>
       <c r="F70" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000361432317943276</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000361624982395346</v>
       </c>
       <c r="G70" t="s">
         <v>75</v>
@@ -2654,19 +2654,19 @@
         <v>181.889499199397</v>
       </c>
       <c r="B71" t="n">
-        <v>1.18415807245973</v>
+        <v>1.1841579116878</v>
       </c>
       <c r="C71" t="n">
-        <v>0.304428672894388</v>
+        <v>0.304420397623408</v>
       </c>
       <c r="D71" t="n">
-        <v>3.88977181814453</v>
+        <v>3.88987702838723</v>
       </c>
       <c r="E71" t="n">
-        <v>0.00010033852383099</v>
+        <v>0.000100295032676577</v>
       </c>
       <c r="F71" t="n">
-        <v>0.00309877763319049</v>
+        <v>0.00310137816124933</v>
       </c>
       <c r="G71" t="s">
         <v>76</v>
@@ -2677,19 +2677,19 @@
         <v>886.577828620725</v>
       </c>
       <c r="B72" t="n">
-        <v>-1.24264658032946</v>
+        <v>-1.24264659549491</v>
       </c>
       <c r="C72" t="n">
-        <v>0.15084144374312</v>
+        <v>0.150840685754124</v>
       </c>
       <c r="D72" t="n">
-        <v>-8.23809789599775</v>
+        <v>-8.23813939377384</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00000000000000017496999690175</v>
+        <v>0.000000000000000174909334415914</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0000000000000772374313350347</v>
+        <v>0.0000000000000772106529463548</v>
       </c>
       <c r="G72" t="s">
         <v>77</v>
@@ -2700,19 +2700,19 @@
         <v>81.920116613865</v>
       </c>
       <c r="B73" t="n">
-        <v>1.78454310258771</v>
+        <v>1.78454257341825</v>
       </c>
       <c r="C73" t="n">
-        <v>0.464215023353996</v>
+        <v>0.464199582429948</v>
       </c>
       <c r="D73" t="n">
-        <v>3.84421660827395</v>
+        <v>3.84434334058789</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000120938150387611</v>
+        <v>0.00012087567349486</v>
       </c>
       <c r="F73" t="n">
-        <v>0.00357193998242468</v>
+        <v>0.00357009471101545</v>
       </c>
       <c r="G73" t="s">
         <v>78</v>
@@ -2723,19 +2723,19 @@
         <v>126.141814477364</v>
       </c>
       <c r="B74" t="n">
-        <v>1.51744122576148</v>
+        <v>1.51744107927137</v>
       </c>
       <c r="C74" t="n">
-        <v>0.315876265495331</v>
+        <v>0.315870750361096</v>
       </c>
       <c r="D74" t="n">
-        <v>4.80391023802297</v>
+        <v>4.80399365100021</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00000155596605367434</v>
+        <v>0.00000155531762891872</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0000907628341237966</v>
+        <v>0.0000907250101183192</v>
       </c>
       <c r="G74" t="s">
         <v>79</v>
@@ -2746,19 +2746,19 @@
         <v>54.4580011255167</v>
       </c>
       <c r="B75" t="n">
-        <v>-4.15735995278302</v>
+        <v>-4.15736063238543</v>
       </c>
       <c r="C75" t="n">
-        <v>0.502824691054766</v>
+        <v>0.502816993779765</v>
       </c>
       <c r="D75" t="n">
-        <v>-8.26801075353362</v>
+        <v>-8.26813867433916</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000000000000000136212609700967</v>
+        <v>0.000000000000000136066571722212</v>
       </c>
       <c r="F75" t="n">
-        <v>0.000000000000061798904284608</v>
+        <v>0.0000000000000617326476649691</v>
       </c>
       <c r="G75" t="s">
         <v>80</v>
@@ -2769,19 +2769,19 @@
         <v>107.382706267766</v>
       </c>
       <c r="B76" t="n">
-        <v>1.36085231218952</v>
+        <v>1.36085226395028</v>
       </c>
       <c r="C76" t="n">
-        <v>0.324773133628231</v>
+        <v>0.324769110790075</v>
       </c>
       <c r="D76" t="n">
-        <v>4.19016282839235</v>
+        <v>4.19021458241425</v>
       </c>
       <c r="E76" t="n">
-        <v>0.0000278754347032574</v>
+        <v>0.0000278690772657935</v>
       </c>
       <c r="F76" t="n">
-        <v>0.00104270237881126</v>
+        <v>0.00104255931341645</v>
       </c>
       <c r="G76" t="s">
         <v>81</v>
@@ -2792,19 +2792,19 @@
         <v>930.869435454327</v>
       </c>
       <c r="B77" t="n">
-        <v>1.08809979092457</v>
+        <v>1.08809972312349</v>
       </c>
       <c r="C77" t="n">
-        <v>0.317207571848633</v>
+        <v>0.317187779363105</v>
       </c>
       <c r="D77" t="n">
-        <v>3.43024532669035</v>
+        <v>3.43045915989681</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000603035759495706</v>
+        <v>0.000602560670572942</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0132206484024743</v>
+        <v>0.0132102327952589</v>
       </c>
       <c r="G77" t="s">
         <v>82</v>
@@ -2815,19 +2815,19 @@
         <v>490.650121442634</v>
       </c>
       <c r="B78" t="n">
-        <v>1.04848816000555</v>
+        <v>1.04848809161187</v>
       </c>
       <c r="C78" t="n">
-        <v>0.219764732584167</v>
+        <v>0.219758475758866</v>
       </c>
       <c r="D78" t="n">
-        <v>4.77095732184413</v>
+        <v>4.77109284632252</v>
       </c>
       <c r="E78" t="n">
-        <v>0.00000183352390296865</v>
+        <v>0.00000183229050116877</v>
       </c>
       <c r="F78" t="n">
-        <v>0.000102208006509171</v>
+        <v>0.000102181125536061</v>
       </c>
       <c r="G78" t="s">
         <v>83</v>
@@ -2838,19 +2838,19 @@
         <v>142.682456851966</v>
       </c>
       <c r="B79" t="n">
-        <v>2.07903460630711</v>
+        <v>2.07903487344519</v>
       </c>
       <c r="C79" t="n">
-        <v>0.224344683073488</v>
+        <v>0.22434896045495</v>
       </c>
       <c r="D79" t="n">
-        <v>9.26714454661748</v>
+        <v>9.26696905227101</v>
       </c>
       <c r="E79" t="n">
-        <v>0.0000000000000000000191195826364118</v>
+        <v>0.0000000000000000000191510570955736</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0000000000000000141945519636597</v>
+        <v>0.0000000000000000142179188882729</v>
       </c>
       <c r="G79" t="s">
         <v>84</v>
@@ -2861,19 +2861,19 @@
         <v>522.605063664275</v>
       </c>
       <c r="B80" t="n">
-        <v>-1.208066294853</v>
+        <v>-1.2080662936373</v>
       </c>
       <c r="C80" t="n">
-        <v>0.161477213792007</v>
+        <v>0.161477468597673</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.48134220602211</v>
+        <v>-7.48133039320332</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0000000000000735673349879106</v>
+        <v>0.0000000000000735739491864351</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0000000000222513941177323</v>
+        <v>0.0000000000222533946678156</v>
       </c>
       <c r="G80" t="s">
         <v>85</v>
@@ -2884,19 +2884,19 @@
         <v>314.057815863493</v>
       </c>
       <c r="B81" t="n">
-        <v>1.37324678414017</v>
+        <v>1.37324668014781</v>
       </c>
       <c r="C81" t="n">
-        <v>0.233789282137462</v>
+        <v>0.233784206861601</v>
       </c>
       <c r="D81" t="n">
-        <v>5.87386543807742</v>
+        <v>5.87399251036991</v>
       </c>
       <c r="E81" t="n">
-        <v>0.00000000425749000786533</v>
+        <v>0.0000000042542260041106</v>
       </c>
       <c r="F81" t="n">
-        <v>0.000000493174356726699</v>
+        <v>0.000000492796264717294</v>
       </c>
       <c r="G81" t="s">
         <v>86</v>
@@ -2907,19 +2907,19 @@
         <v>195.429746320787</v>
       </c>
       <c r="B82" t="n">
-        <v>-1.20610071103873</v>
+        <v>-1.20610064742541</v>
       </c>
       <c r="C82" t="n">
-        <v>0.24894105633411</v>
+        <v>0.248938300092974</v>
       </c>
       <c r="D82" t="n">
-        <v>-4.84492485409875</v>
+        <v>-4.84497824149582</v>
       </c>
       <c r="E82" t="n">
-        <v>0.00000126659608482373</v>
+        <v>0.00000126625555041775</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0000763369514886568</v>
+        <v>0.0000763164276936278</v>
       </c>
       <c r="G82" t="s">
         <v>87</v>
@@ -2930,19 +2930,19 @@
         <v>88.5694413487459</v>
       </c>
       <c r="B83" t="n">
-        <v>1.89466854962852</v>
+        <v>1.89466797139324</v>
       </c>
       <c r="C83" t="n">
-        <v>0.619957210377232</v>
+        <v>0.619924200316602</v>
       </c>
       <c r="D83" t="n">
-        <v>3.05612793579036</v>
+        <v>3.05628973739953</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0022421556304814</v>
+        <v>0.00224094592928977</v>
       </c>
       <c r="F83" t="n">
-        <v>0.036258542487775</v>
+        <v>0.0362408722126993</v>
       </c>
       <c r="G83" t="s">
         <v>88</v>
@@ -2953,19 +2953,19 @@
         <v>98.6495411348302</v>
       </c>
       <c r="B84" t="n">
-        <v>-3.35983624975916</v>
+        <v>-3.35983720915504</v>
       </c>
       <c r="C84" t="n">
-        <v>0.256239869707426</v>
+        <v>0.256251677905646</v>
       </c>
       <c r="D84" t="n">
-        <v>-13.1120744542815</v>
+        <v>-13.1114739876636</v>
       </c>
       <c r="E84" t="n">
-        <v>0.00000000000000000000000000000000000000280810903165736</v>
+        <v>0.00000000000000000000000000000000000000283043320284977</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00000000000000000000000000000000000917296896281194</v>
+        <v>0.00000000000000000000000000000000000924589310042906</v>
       </c>
       <c r="G84" t="s">
         <v>89</v>
@@ -2976,19 +2976,19 @@
         <v>120.227628212667</v>
       </c>
       <c r="B85" t="n">
-        <v>-2.80602008380512</v>
+        <v>-2.80601984368239</v>
       </c>
       <c r="C85" t="n">
-        <v>0.369740042550203</v>
+        <v>0.36972993897057</v>
       </c>
       <c r="D85" t="n">
-        <v>-7.58917012193539</v>
+        <v>-7.58937686110875</v>
       </c>
       <c r="E85" t="n">
-        <v>0.0000000000000321960824446686</v>
+        <v>0.0000000000000321447587891964</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0000000000103109532268387</v>
+        <v>0.0000000000102945165745871</v>
       </c>
       <c r="G85" t="s">
         <v>90</v>
@@ -2999,19 +2999,19 @@
         <v>77.776880164574</v>
       </c>
       <c r="B86" t="n">
-        <v>-8.95411281304993</v>
+        <v>-8.95411280574195</v>
       </c>
       <c r="C86" t="n">
-        <v>0.96128687944042</v>
+        <v>0.96128767300882</v>
       </c>
       <c r="D86" t="n">
-        <v>-9.31471447759929</v>
+        <v>-9.31470678045384</v>
       </c>
       <c r="E86" t="n">
-        <v>0.0000000000000000000122280982750789</v>
+        <v>0.0000000000000000000122289849053721</v>
       </c>
       <c r="F86" t="n">
-        <v>0.00000000000000000951054900604116</v>
+        <v>0.00000000000000000951123859330683</v>
       </c>
       <c r="G86" t="s">
         <v>91</v>
@@ -3022,19 +3022,19 @@
         <v>105.70103980834</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.30650158849137</v>
+        <v>-1.30650164629722</v>
       </c>
       <c r="C87" t="n">
-        <v>0.278102034910783</v>
+        <v>0.278103636429496</v>
       </c>
       <c r="D87" t="n">
-        <v>-4.6979217139152</v>
+        <v>-4.69789486779488</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00000262822125992993</v>
+        <v>0.00000262856664825609</v>
       </c>
       <c r="F87" t="n">
-        <v>0.000136275358217255</v>
+        <v>0.000136293266876085</v>
       </c>
       <c r="G87" t="s">
         <v>92</v>
@@ -3045,19 +3045,19 @@
         <v>61.3116704897538</v>
       </c>
       <c r="B88" t="n">
-        <v>-7.48078779086729</v>
+        <v>-7.48078804816543</v>
       </c>
       <c r="C88" t="n">
-        <v>0.922871356606008</v>
+        <v>0.922868373366877</v>
       </c>
       <c r="D88" t="n">
-        <v>-8.105991953612</v>
+        <v>-8.10601843562313</v>
       </c>
       <c r="E88" t="n">
-        <v>0.00000000000000052316907587062</v>
+        <v>0.000000000000000523055122354265</v>
       </c>
       <c r="F88" t="n">
-        <v>0.000000000000208412695516947</v>
+        <v>0.000000000000208367300327127</v>
       </c>
       <c r="G88" t="s">
         <v>93</v>
@@ -3068,19 +3068,19 @@
         <v>201.885361485223</v>
       </c>
       <c r="B89" t="n">
-        <v>1.33350719299652</v>
+        <v>1.33350691776587</v>
       </c>
       <c r="C89" t="n">
-        <v>0.423517243598214</v>
+        <v>0.42349522639849</v>
       </c>
       <c r="D89" t="n">
-        <v>3.14864911205741</v>
+        <v>3.14881215806457</v>
       </c>
       <c r="E89" t="n">
-        <v>0.00164027016876116</v>
+        <v>0.00163935533346619</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0289002509885395</v>
+        <v>0.0288841323209313</v>
       </c>
       <c r="G89" t="s">
         <v>94</v>
@@ -3091,19 +3091,19 @@
         <v>76.7360003172779</v>
       </c>
       <c r="B90" t="n">
-        <v>1.02928848201455</v>
+        <v>1.02928855988949</v>
       </c>
       <c r="C90" t="n">
-        <v>0.323317884264693</v>
+        <v>0.323319098892992</v>
       </c>
       <c r="D90" t="n">
-        <v>3.18351854972518</v>
+        <v>3.18350683090994</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00145496790470693</v>
+        <v>0.00145502680129089</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0265816451762621</v>
+        <v>0.0265827211918166</v>
       </c>
       <c r="G90" t="s">
         <v>95</v>
@@ -3114,19 +3114,19 @@
         <v>298.883479772732</v>
       </c>
       <c r="B91" t="n">
-        <v>1.26070704868474</v>
+        <v>1.26070687156961</v>
       </c>
       <c r="C91" t="n">
-        <v>0.351871009117473</v>
+        <v>0.351853319901679</v>
       </c>
       <c r="D91" t="n">
-        <v>3.582867062128</v>
+        <v>3.58304668525481</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000339843581470884</v>
+        <v>0.000339609882256732</v>
       </c>
       <c r="F91" t="n">
-        <v>0.00815488906775739</v>
+        <v>0.00815503071763589</v>
       </c>
       <c r="G91" t="s">
         <v>96</v>
@@ -3137,19 +3137,19 @@
         <v>73.7785256506989</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.51082768196856</v>
+        <v>-1.51082736137811</v>
       </c>
       <c r="C92" t="n">
-        <v>0.406052190471901</v>
+        <v>0.406044873186352</v>
       </c>
       <c r="D92" t="n">
-        <v>-3.72077215052755</v>
+        <v>-3.72083841256808</v>
       </c>
       <c r="E92" t="n">
-        <v>0.000198614575695115</v>
+        <v>0.000198562464221398</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00533548004083604</v>
+        <v>0.00533408014494753</v>
       </c>
       <c r="G92" t="s">
         <v>97</v>
@@ -3160,19 +3160,19 @@
         <v>209.171332616979</v>
       </c>
       <c r="B93" t="n">
-        <v>1.16328074416815</v>
+        <v>1.16328088924893</v>
       </c>
       <c r="C93" t="n">
-        <v>0.191755683986092</v>
+        <v>0.191759026458702</v>
       </c>
       <c r="D93" t="n">
-        <v>6.06647333725203</v>
+        <v>6.06636835163248</v>
       </c>
       <c r="E93" t="n">
-        <v>0.00000000130749420286593</v>
+        <v>0.00000000130834874597773</v>
       </c>
       <c r="F93" t="n">
-        <v>0.000000175043465700076</v>
+        <v>0.000000175157869410281</v>
       </c>
       <c r="G93" t="s">
         <v>98</v>
@@ -3183,19 +3183,19 @@
         <v>79.6904080323318</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.32212748515835</v>
+        <v>-1.32212762669371</v>
       </c>
       <c r="C94" t="n">
-        <v>0.379352904059058</v>
+        <v>0.379347492268159</v>
       </c>
       <c r="D94" t="n">
-        <v>-3.4852177774617</v>
+        <v>-3.48526787086049</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000491736648861559</v>
+        <v>0.000491644593109453</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0110627199529695</v>
+        <v>0.0110606489521442</v>
       </c>
       <c r="G94" t="s">
         <v>99</v>
@@ -3206,19 +3206,19 @@
         <v>86.0129208659712</v>
       </c>
       <c r="B95" t="n">
-        <v>2.18092070873131</v>
+        <v>2.18092076869092</v>
       </c>
       <c r="C95" t="n">
-        <v>0.471543834290289</v>
+        <v>0.471525847713961</v>
       </c>
       <c r="D95" t="n">
-        <v>4.6250646284322</v>
+        <v>4.62524118086929</v>
       </c>
       <c r="E95" t="n">
-        <v>0.00000374481617049643</v>
+        <v>0.00000374162763352049</v>
       </c>
       <c r="F95" t="n">
-        <v>0.000184229164194934</v>
+        <v>0.000184072301621356</v>
       </c>
       <c r="G95" t="s">
         <v>100</v>
@@ -3229,19 +3229,19 @@
         <v>94.3702822672123</v>
       </c>
       <c r="B96" t="n">
-        <v>-2.43692530513658</v>
+        <v>-2.43692543969988</v>
       </c>
       <c r="C96" t="n">
-        <v>0.346403894049402</v>
+        <v>0.346399898975234</v>
       </c>
       <c r="D96" t="n">
-        <v>-7.03492468473534</v>
+        <v>-7.0350062078803</v>
       </c>
       <c r="E96" t="n">
-        <v>0.00000000000199368663395444</v>
+        <v>0.00000000000199252131824036</v>
       </c>
       <c r="F96" t="n">
-        <v>0.000000000453311088788985</v>
+        <v>0.00000000045326984919266</v>
       </c>
       <c r="G96" t="s">
         <v>101</v>
@@ -3252,19 +3252,19 @@
         <v>64.6719527886008</v>
       </c>
       <c r="B97" t="n">
-        <v>1.30598584565591</v>
+        <v>1.30598565373187</v>
       </c>
       <c r="C97" t="n">
-        <v>0.386772073304886</v>
+        <v>0.386769125451949</v>
       </c>
       <c r="D97" t="n">
-        <v>3.37662912034092</v>
+        <v>3.37665435989958</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000733799213302531</v>
+        <v>0.000733731888967771</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01552479605035</v>
+        <v>0.0155233716871899</v>
       </c>
       <c r="G97" t="s">
         <v>102</v>
@@ -3275,19 +3275,19 @@
         <v>102.836099606294</v>
       </c>
       <c r="B98" t="n">
-        <v>1.06361548811268</v>
+        <v>1.06361551831178</v>
       </c>
       <c r="C98" t="n">
-        <v>0.275058667673226</v>
+        <v>0.275060745260187</v>
       </c>
       <c r="D98" t="n">
-        <v>3.86686773810841</v>
+        <v>3.8668386406998</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000110242177332956</v>
+        <v>0.000110255326208589</v>
       </c>
       <c r="F98" t="n">
-        <v>0.00332211343612393</v>
+        <v>0.00332250967336694</v>
       </c>
       <c r="G98" t="s">
         <v>103</v>
@@ -3298,19 +3298,19 @@
         <v>111.846422660664</v>
       </c>
       <c r="B99" t="n">
-        <v>-3.63928738228211</v>
+        <v>-3.63928662638174</v>
       </c>
       <c r="C99" t="n">
-        <v>0.377816772390024</v>
+        <v>0.3778076131387</v>
       </c>
       <c r="D99" t="n">
-        <v>-9.63241350896205</v>
+        <v>-9.6326450283724</v>
       </c>
       <c r="E99" t="n">
-        <v>0.000000000000000000000583427568813482</v>
+        <v>0.000000000000000000000582114201659059</v>
       </c>
       <c r="F99" t="n">
-        <v>0.000000000000000000595570155089413</v>
+        <v>0.000000000000000000594229453481088</v>
       </c>
       <c r="G99" t="s">
         <v>104</v>
@@ -3321,19 +3321,19 @@
         <v>296.442304493921</v>
       </c>
       <c r="B100" t="n">
-        <v>-2.26238414639694</v>
+        <v>-2.26238360558909</v>
       </c>
       <c r="C100" t="n">
-        <v>0.393977799552859</v>
+        <v>0.393954859014514</v>
       </c>
       <c r="D100" t="n">
-        <v>-5.7424153060518</v>
+        <v>-5.74274832210088</v>
       </c>
       <c r="E100" t="n">
-        <v>0.00000000933355647363731</v>
+        <v>0.00000000931521275712172</v>
       </c>
       <c r="F100" t="n">
-        <v>0.000000958773445810806</v>
+        <v>0.000000956889119258296</v>
       </c>
       <c r="G100" t="s">
         <v>105</v>
@@ -3344,19 +3344,19 @@
         <v>1818.81509147773</v>
       </c>
       <c r="B101" t="n">
-        <v>-2.54275272442438</v>
+        <v>-2.54275270332485</v>
       </c>
       <c r="C101" t="n">
-        <v>0.152344578182751</v>
+        <v>0.15234184476714</v>
       </c>
       <c r="D101" t="n">
-        <v>-16.6907989424744</v>
+        <v>-16.6910982810503</v>
       </c>
       <c r="E101" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000001529107446958</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000152145961132778</v>
       </c>
       <c r="F101" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000083249706437217</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000828333327727219</v>
       </c>
       <c r="G101" t="s">
         <v>106</v>
@@ -3367,19 +3367,19 @@
         <v>74.6904430927447</v>
       </c>
       <c r="B102" t="n">
-        <v>-1.93331521298497</v>
+        <v>-1.93331452289825</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4555720807747</v>
+        <v>0.455559491547682</v>
       </c>
       <c r="D102" t="n">
-        <v>-4.24370872266221</v>
+        <v>-4.24382448125525</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0000219855689099603</v>
+        <v>0.0000219742248599526</v>
       </c>
       <c r="F102" t="n">
-        <v>0.000860420450592621</v>
+        <v>0.00086068348833958</v>
       </c>
       <c r="G102" t="s">
         <v>107</v>
@@ -3390,19 +3390,19 @@
         <v>110.068587043854</v>
       </c>
       <c r="B103" t="n">
-        <v>1.24650594994695</v>
+        <v>1.24650600781808</v>
       </c>
       <c r="C103" t="n">
-        <v>0.269171263474465</v>
+        <v>0.269173144700881</v>
       </c>
       <c r="D103" t="n">
-        <v>4.63090277118383</v>
+        <v>4.6308706212251</v>
       </c>
       <c r="E103" t="n">
-        <v>0.00000364074818796712</v>
+        <v>0.0000036413136112232</v>
       </c>
       <c r="F103" t="n">
-        <v>0.000179650574483586</v>
+        <v>0.000179678474961053</v>
       </c>
       <c r="G103" t="s">
         <v>108</v>
@@ -3413,19 +3413,19 @@
         <v>51.884292331527</v>
       </c>
       <c r="B104" t="n">
-        <v>-1.07548748594095</v>
+        <v>-1.07548805425202</v>
       </c>
       <c r="C104" t="n">
-        <v>0.308377385680504</v>
+        <v>0.308388560400146</v>
       </c>
       <c r="D104" t="n">
-        <v>-3.48756924431293</v>
+        <v>-3.48744471214021</v>
       </c>
       <c r="E104" t="n">
-        <v>0.000487432686983878</v>
+        <v>0.000487659738190051</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0109810180365623</v>
+        <v>0.0109861331087698</v>
       </c>
       <c r="G104" t="s">
         <v>109</v>
@@ -3436,19 +3436,19 @@
         <v>77.1926995713384</v>
       </c>
       <c r="B105" t="n">
-        <v>-1.2540110468778</v>
+        <v>-1.2540122233774</v>
       </c>
       <c r="C105" t="n">
-        <v>0.238825137698984</v>
+        <v>0.238837548971904</v>
       </c>
       <c r="D105" t="n">
-        <v>-5.25074981201668</v>
+        <v>-5.25048188099149</v>
       </c>
       <c r="E105" t="n">
-        <v>0.000000151481311936646</v>
+        <v>0.000000151701826883704</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0000118949243647175</v>
+        <v>0.0000119122400889016</v>
       </c>
       <c r="G105" t="s">
         <v>110</v>
@@ -3459,19 +3459,19 @@
         <v>270.32975470273</v>
       </c>
       <c r="B106" t="n">
-        <v>-1.43601074523189</v>
+        <v>-1.43601060072554</v>
       </c>
       <c r="C106" t="n">
-        <v>0.304598245997776</v>
+        <v>0.304586421771538</v>
       </c>
       <c r="D106" t="n">
-        <v>-4.71444193819284</v>
+        <v>-4.7146244812011</v>
       </c>
       <c r="E106" t="n">
-        <v>0.00000242374102249841</v>
+        <v>0.00000242156926212623</v>
       </c>
       <c r="F106" t="n">
-        <v>0.000126475917317785</v>
+        <v>0.000126362590282133</v>
       </c>
       <c r="G106" t="s">
         <v>111</v>
@@ -3482,19 +3482,19 @@
         <v>186.376222828028</v>
       </c>
       <c r="B107" t="n">
-        <v>-2.29322781478984</v>
+        <v>-2.29322781957664</v>
       </c>
       <c r="C107" t="n">
-        <v>0.250606088573378</v>
+        <v>0.250604431360338</v>
       </c>
       <c r="D107" t="n">
-        <v>-9.15072665570287</v>
+        <v>-9.15078718731541</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0000000000000000000565518537248096</v>
+        <v>0.0000000000000000000565201723182312</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0000000000000000384858927869714</v>
+        <v>0.0000000000000000384643322697363</v>
       </c>
       <c r="G107" t="s">
         <v>112</v>
@@ -3505,19 +3505,19 @@
         <v>82.5397598377303</v>
       </c>
       <c r="B108" t="n">
-        <v>-1.09794458407154</v>
+        <v>-1.09794552401853</v>
       </c>
       <c r="C108" t="n">
-        <v>0.23972867280508</v>
+        <v>0.239740494251362</v>
       </c>
       <c r="D108" t="n">
-        <v>-4.57994686753331</v>
+        <v>-4.57972495404703</v>
       </c>
       <c r="E108" t="n">
-        <v>0.00000465094066867152</v>
+        <v>0.00000465587789196539</v>
       </c>
       <c r="F108" t="n">
-        <v>0.000224082047024814</v>
+        <v>0.000224319922151831</v>
       </c>
       <c r="G108" t="s">
         <v>113</v>
@@ -3528,19 +3528,19 @@
         <v>82.1962346731195</v>
       </c>
       <c r="B109" t="n">
-        <v>3.0453719677912</v>
+        <v>3.045371255357</v>
       </c>
       <c r="C109" t="n">
-        <v>0.405636865577341</v>
+        <v>0.405628435494396</v>
       </c>
       <c r="D109" t="n">
-        <v>7.50763115047922</v>
+        <v>7.50778542348783</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0000000000000602068560613918</v>
+        <v>0.0000000000000601359673095287</v>
       </c>
       <c r="F109" t="n">
-        <v>0.000000000018553935472655</v>
+        <v>0.0000000000185320896993685</v>
       </c>
       <c r="G109" t="s">
         <v>114</v>
@@ -3551,19 +3551,19 @@
         <v>635.768048996905</v>
       </c>
       <c r="B110" t="n">
-        <v>-2.22274485350635</v>
+        <v>-2.22274477188723</v>
       </c>
       <c r="C110" t="n">
-        <v>0.33310013237053</v>
+        <v>0.333080258243393</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.67290294269182</v>
+        <v>-6.6733008543034</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0000000000250792264821713</v>
+        <v>0.0000000000250112908822272</v>
       </c>
       <c r="F110" t="n">
-        <v>0.00000000493516874859402</v>
+        <v>0.00000000492180016842671</v>
       </c>
       <c r="G110" t="s">
         <v>115</v>
@@ -3574,19 +3574,19 @@
         <v>139.834850907897</v>
       </c>
       <c r="B111" t="n">
-        <v>1.0516168512236</v>
+        <v>1.05161665083697</v>
       </c>
       <c r="C111" t="n">
-        <v>0.315603937548064</v>
+        <v>0.315597151824762</v>
       </c>
       <c r="D111" t="n">
-        <v>3.3320777281603</v>
+        <v>3.33214873694705</v>
       </c>
       <c r="E111" t="n">
-        <v>0.000862001768568093</v>
+        <v>0.000861781845398177</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0175513548908305</v>
+        <v>0.0175504774075916</v>
       </c>
       <c r="G111" t="s">
         <v>116</v>
@@ -3597,19 +3597,19 @@
         <v>65.5150588770384</v>
       </c>
       <c r="B112" t="n">
-        <v>-3.80954453548849</v>
+        <v>-3.80954490809849</v>
       </c>
       <c r="C112" t="n">
-        <v>0.395892937061372</v>
+        <v>0.395896218480099</v>
       </c>
       <c r="D112" t="n">
-        <v>-9.6226635508224</v>
+        <v>-9.62258473375641</v>
       </c>
       <c r="E112" t="n">
-        <v>0.000000000000000000000641481513827015</v>
+        <v>0.000000000000000000000641973365640442</v>
       </c>
       <c r="F112" t="n">
-        <v>0.000000000000000000616312797960978</v>
+        <v>0.000000000000000000616785351823843</v>
       </c>
       <c r="G112" t="s">
         <v>117</v>
@@ -3620,19 +3620,19 @@
         <v>3681.75694828478</v>
       </c>
       <c r="B113" t="n">
-        <v>-1.23358449253479</v>
+        <v>-1.23358446972721</v>
       </c>
       <c r="C113" t="n">
-        <v>0.186254086458284</v>
+        <v>0.186246575249286</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.62312712699104</v>
+        <v>-6.62339411114589</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0000000000351678315665594</v>
+        <v>0.0000000000351043421445755</v>
       </c>
       <c r="F113" t="n">
-        <v>0.00000000667902549972808</v>
+        <v>0.00000000666696767729478</v>
       </c>
       <c r="G113" t="s">
         <v>118</v>
@@ -3643,19 +3643,19 @@
         <v>406.618383446224</v>
       </c>
       <c r="B114" t="n">
-        <v>1.30497925390481</v>
+        <v>1.30497926419297</v>
       </c>
       <c r="C114" t="n">
-        <v>0.215492981579105</v>
+        <v>0.215488319744618</v>
       </c>
       <c r="D114" t="n">
-        <v>6.05578541046713</v>
+        <v>6.05591646795307</v>
       </c>
       <c r="E114" t="n">
-        <v>0.000000001397341784566</v>
+        <v>0.00000000139620444709068</v>
       </c>
       <c r="F114" t="n">
-        <v>0.000000185551084287126</v>
+        <v>0.000000185400058815707</v>
       </c>
       <c r="G114" t="s">
         <v>119</v>
@@ -3666,19 +3666,19 @@
         <v>228.769668298359</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.96860058964457</v>
+        <v>-1.96860068104487</v>
       </c>
       <c r="C115" t="n">
-        <v>0.33642503567395</v>
+        <v>0.33641156414293</v>
       </c>
       <c r="D115" t="n">
-        <v>-5.85152821846606</v>
+        <v>-5.85176281338676</v>
       </c>
       <c r="E115" t="n">
-        <v>0.00000000487076621924474</v>
+        <v>0.00000000486389939356152</v>
       </c>
       <c r="F115" t="n">
-        <v>0.000000537528544992732</v>
+        <v>0.000000536770735101623</v>
       </c>
       <c r="G115" t="s">
         <v>120</v>
@@ -3689,19 +3689,19 @@
         <v>313.566481676933</v>
       </c>
       <c r="B116" t="n">
-        <v>-2.38177720005647</v>
+        <v>-2.38177645202778</v>
       </c>
       <c r="C116" t="n">
-        <v>0.397977214103102</v>
+        <v>0.397953333882029</v>
       </c>
       <c r="D116" t="n">
-        <v>-5.98470745473241</v>
+        <v>-5.9850647029228</v>
       </c>
       <c r="E116" t="n">
-        <v>0.00000000216779130978502</v>
+        <v>0.00000000216303857853116</v>
       </c>
       <c r="F116" t="n">
-        <v>0.000000272357965097837</v>
+        <v>0.000000271760839254995</v>
       </c>
       <c r="G116" t="s">
         <v>121</v>
@@ -3712,19 +3712,19 @@
         <v>60.9046518135092</v>
       </c>
       <c r="B117" t="n">
-        <v>-2.67084803641559</v>
+        <v>-2.6708480325218</v>
       </c>
       <c r="C117" t="n">
-        <v>0.676420945645396</v>
+        <v>0.676382836547865</v>
       </c>
       <c r="D117" t="n">
-        <v>-3.94849990026143</v>
+        <v>-3.94872236284606</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0000786424488080007</v>
+        <v>0.000078569412407724</v>
       </c>
       <c r="F117" t="n">
-        <v>0.00256380661952311</v>
+        <v>0.00256142557456159</v>
       </c>
       <c r="G117" t="s">
         <v>122</v>
@@ -3735,19 +3735,19 @@
         <v>373.74122155853</v>
       </c>
       <c r="B118" t="n">
-        <v>-2.63030992090517</v>
+        <v>-2.63030920037488</v>
       </c>
       <c r="C118" t="n">
-        <v>0.407676429260275</v>
+        <v>0.407650420688294</v>
       </c>
       <c r="D118" t="n">
-        <v>-6.45195486449349</v>
+        <v>-6.45236473921394</v>
       </c>
       <c r="E118" t="n">
-        <v>0.000000000110416468151559</v>
+        <v>0.000000000110118155152556</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0000000191854486629725</v>
+        <v>0.0000000191336151926245</v>
       </c>
       <c r="G118" t="s">
         <v>123</v>
@@ -3758,19 +3758,19 @@
         <v>66.1279492846849</v>
       </c>
       <c r="B119" t="n">
-        <v>-1.31071142586329</v>
+        <v>-1.3107113041462</v>
       </c>
       <c r="C119" t="n">
-        <v>0.392435926558026</v>
+        <v>0.392432281388447</v>
       </c>
       <c r="D119" t="n">
-        <v>-3.3399373940079</v>
+        <v>-3.33996810738615</v>
       </c>
       <c r="E119" t="n">
-        <v>0.000837972782221405</v>
+        <v>0.000837880114512547</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0172430057773345</v>
+        <v>0.0172509519865215</v>
       </c>
       <c r="G119" t="s">
         <v>124</v>
@@ -3781,19 +3781,19 @@
         <v>1317.13491996408</v>
       </c>
       <c r="B120" t="n">
-        <v>-1.403263628694</v>
+        <v>-1.40326360674191</v>
       </c>
       <c r="C120" t="n">
-        <v>0.225829982777712</v>
+        <v>0.225819636748716</v>
       </c>
       <c r="D120" t="n">
-        <v>-6.21380567555219</v>
+        <v>-6.2140902666645</v>
       </c>
       <c r="E120" t="n">
-        <v>0.000000000517164792407391</v>
+        <v>0.000000000516228476082</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0000000765524923797894</v>
+        <v>0.0000000765445844229797</v>
       </c>
       <c r="G120" t="s">
         <v>125</v>
@@ -3804,19 +3804,19 @@
         <v>529.239018249884</v>
       </c>
       <c r="B121" t="n">
-        <v>-1.75748764349247</v>
+        <v>-1.75748771193177</v>
       </c>
       <c r="C121" t="n">
-        <v>0.18338679677047</v>
+        <v>0.18338433541606</v>
       </c>
       <c r="D121" t="n">
-        <v>-9.58350150852013</v>
+        <v>-9.58363050990372</v>
       </c>
       <c r="E121" t="n">
-        <v>0.000000000000000000000938094573630206</v>
+        <v>0.000000000000000000000936923179284647</v>
       </c>
       <c r="F121" t="n">
-        <v>0.000000000000000000851216592839008</v>
+        <v>0.000000000000000000850153682625341</v>
       </c>
       <c r="G121" t="s">
         <v>126</v>
@@ -3827,19 +3827,19 @@
         <v>4242.11552076757</v>
       </c>
       <c r="B122" t="n">
-        <v>-1.2469676652359</v>
+        <v>-1.24696765584435</v>
       </c>
       <c r="C122" t="n">
-        <v>0.171928712617596</v>
+        <v>0.171922730656911</v>
       </c>
       <c r="D122" t="n">
-        <v>-7.25281802120744</v>
+        <v>-7.25307032455642</v>
       </c>
       <c r="E122" t="n">
-        <v>0.000000000000408188357519217</v>
+        <v>0.000000000000407428400071368</v>
       </c>
       <c r="F122" t="n">
-        <v>0.000000000105824451481926</v>
+        <v>0.000000000105627429497868</v>
       </c>
       <c r="G122" t="s">
         <v>127</v>
@@ -3853,16 +3853,16 @@
         <v>-1.61517172130124</v>
       </c>
       <c r="C123" t="n">
-        <v>0.518085117991621</v>
+        <v>0.518085117991622</v>
       </c>
       <c r="D123" t="n">
         <v>-3.1175798439502</v>
       </c>
       <c r="E123" t="n">
-        <v>0.00182342547975205</v>
+        <v>0.00182342547975204</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0312082897947761</v>
+        <v>0.0312180381140357</v>
       </c>
       <c r="G123" t="s">
         <v>128</v>
@@ -3873,19 +3873,19 @@
         <v>253.059660514073</v>
       </c>
       <c r="B124" t="n">
-        <v>-2.46301056006334</v>
+        <v>-2.46301008465955</v>
       </c>
       <c r="C124" t="n">
-        <v>0.434030098206321</v>
+        <v>0.434003017657825</v>
       </c>
       <c r="D124" t="n">
-        <v>-5.67474599167665</v>
+        <v>-5.6750989842228</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0000000138894594633363</v>
+        <v>0.0000000138608483938997</v>
       </c>
       <c r="F124" t="n">
-        <v>0.00000135842240368067</v>
+        <v>0.00000135562417256026</v>
       </c>
       <c r="G124" t="s">
         <v>129</v>
@@ -3896,19 +3896,19 @@
         <v>485.625696591881</v>
       </c>
       <c r="B125" t="n">
-        <v>-1.40352561539746</v>
+        <v>-1.40352573313273</v>
       </c>
       <c r="C125" t="n">
-        <v>0.300544911483624</v>
+        <v>0.300529962140237</v>
       </c>
       <c r="D125" t="n">
-        <v>-4.66993637812408</v>
+        <v>-4.67016906779433</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0000030129303271438</v>
+        <v>0.00000300951943653034</v>
       </c>
       <c r="F125" t="n">
-        <v>0.000152353532610649</v>
+        <v>0.00015242042585121</v>
       </c>
       <c r="G125" t="s">
         <v>130</v>
@@ -3919,19 +3919,19 @@
         <v>93.4300868320986</v>
       </c>
       <c r="B126" t="n">
-        <v>1.42540181510718</v>
+        <v>1.42540182953134</v>
       </c>
       <c r="C126" t="n">
-        <v>0.311992065923608</v>
+        <v>0.311991571776681</v>
       </c>
       <c r="D126" t="n">
-        <v>4.56871174235627</v>
+        <v>4.56871902472937</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0000049073114465106</v>
+        <v>0.00000490714097028267</v>
       </c>
       <c r="F126" t="n">
-        <v>0.000234359993730578</v>
+        <v>0.000234351852244523</v>
       </c>
       <c r="G126" t="s">
         <v>131</v>
@@ -3942,19 +3942,19 @@
         <v>188.619051420381</v>
       </c>
       <c r="B127" t="n">
-        <v>-1.00986893204912</v>
+        <v>-1.00986896774729</v>
       </c>
       <c r="C127" t="n">
-        <v>0.222716622697356</v>
+        <v>0.22271728014473</v>
       </c>
       <c r="D127" t="n">
-        <v>-4.53432222444128</v>
+        <v>-4.53430899969253</v>
       </c>
       <c r="E127" t="n">
-        <v>0.00000577887509175561</v>
+        <v>0.00000577923714820959</v>
       </c>
       <c r="F127" t="n">
-        <v>0.000267383475562732</v>
+        <v>0.000267400227596904</v>
       </c>
       <c r="G127" t="s">
         <v>132</v>
@@ -3965,19 +3965,19 @@
         <v>58.3071666347328</v>
       </c>
       <c r="B128" t="n">
-        <v>-1.53000648296156</v>
+        <v>-1.53000793630544</v>
       </c>
       <c r="C128" t="n">
-        <v>0.205347459055098</v>
+        <v>0.205370494116917</v>
       </c>
       <c r="D128" t="n">
-        <v>-7.45081770186907</v>
+        <v>-7.44998906919126</v>
       </c>
       <c r="E128" t="n">
-        <v>0.000000000000092763467834906</v>
+        <v>0.0000000000000933479656164507</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0000000000270554592883486</v>
+        <v>0.0000000000272259343288123</v>
       </c>
       <c r="G128" t="s">
         <v>133</v>
@@ -3994,13 +3994,13 @@
         <v>0.76604136027021</v>
       </c>
       <c r="D129" t="n">
-        <v>-7.87116074052232</v>
+        <v>-7.87116074052233</v>
       </c>
       <c r="E129" t="n">
-        <v>0.00000000000000351365839072344</v>
+        <v>0.00000000000000351365839072324</v>
       </c>
       <c r="F129" t="n">
-        <v>0.00000000000133461819757409</v>
+        <v>0.00000000000133461819757402</v>
       </c>
       <c r="G129" t="s">
         <v>134</v>
@@ -4011,19 +4011,19 @@
         <v>58.1913720859126</v>
       </c>
       <c r="B130" t="n">
-        <v>-2.39946225324901</v>
+        <v>-2.39946242244182</v>
       </c>
       <c r="C130" t="n">
-        <v>0.309755486822165</v>
+        <v>0.309766077803279</v>
       </c>
       <c r="D130" t="n">
-        <v>-7.74631073646349</v>
+        <v>-7.74604643432142</v>
       </c>
       <c r="E130" t="n">
-        <v>0.000000000000009460084398265</v>
+        <v>0.00000000000000947978563718129</v>
       </c>
       <c r="F130" t="n">
-        <v>0.00000000000328747996759281</v>
+        <v>0.00000000000329432635770387</v>
       </c>
       <c r="G130" t="s">
         <v>135</v>
@@ -4034,19 +4034,19 @@
         <v>290.962661672149</v>
       </c>
       <c r="B131" t="n">
-        <v>4.85019859671822</v>
+        <v>4.85019795488469</v>
       </c>
       <c r="C131" t="n">
-        <v>0.333639323074765</v>
+        <v>0.33362447503163</v>
       </c>
       <c r="D131" t="n">
-        <v>14.5372510410931</v>
+        <v>14.5378961013722</v>
       </c>
       <c r="E131" t="n">
-        <v>0.00000000000000000000000000000000000000000000000703619553488376</v>
+        <v>0.00000000000000000000000000000000000000000000000697021481490457</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0000000000000000000000000000000000000000000287305454178141</v>
+        <v>0.0000000000000000000000000000000000000000000284611296429591</v>
       </c>
       <c r="G131" t="s">
         <v>136</v>
@@ -4057,19 +4057,19 @@
         <v>132.279232482249</v>
       </c>
       <c r="B132" t="n">
-        <v>-4.48777543564858</v>
+        <v>-4.48777410224127</v>
       </c>
       <c r="C132" t="n">
-        <v>0.39385239059814</v>
+        <v>0.393839573576626</v>
       </c>
       <c r="D132" t="n">
-        <v>-11.3945618784567</v>
+        <v>-11.3949293147102</v>
       </c>
       <c r="E132" t="n">
-        <v>0.00000000000000000000000000000445063133488078</v>
+        <v>0.00000000000000000000000000000443189540393024</v>
       </c>
       <c r="F132" t="n">
-        <v>0.00000000000000000000000000807690684362309</v>
+        <v>0.00000000000000000000000000804290529248807</v>
       </c>
       <c r="G132" t="s">
         <v>137</v>
@@ -4080,19 +4080,19 @@
         <v>429.708154422192</v>
       </c>
       <c r="B133" t="n">
-        <v>3.90901138122738</v>
+        <v>3.90901085400076</v>
       </c>
       <c r="C133" t="n">
-        <v>0.300211857532126</v>
+        <v>0.300197535200318</v>
       </c>
       <c r="D133" t="n">
-        <v>13.0208427254046</v>
+        <v>13.0214621895291</v>
       </c>
       <c r="E133" t="n">
-        <v>0.00000000000000000000000000000000000000931372935323716</v>
+        <v>0.00000000000000000000000000000000000000923847123218484</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0000000000000000000000000000000000253535235877371</v>
+        <v>0.0000000000000000000000000000000000251486584392125</v>
       </c>
       <c r="G133" t="s">
         <v>138</v>
@@ -4103,19 +4103,19 @@
         <v>617.033037228897</v>
       </c>
       <c r="B134" t="n">
-        <v>1.51898335112914</v>
+        <v>1.51898338127126</v>
       </c>
       <c r="C134" t="n">
-        <v>0.318207278595109</v>
+        <v>0.318189056096921</v>
       </c>
       <c r="D134" t="n">
-        <v>4.77356570168814</v>
+        <v>4.77383917568985</v>
       </c>
       <c r="E134" t="n">
-        <v>0.00000180992465870294</v>
+        <v>0.00000180746738356806</v>
       </c>
       <c r="F134" t="n">
-        <v>0.000102208006509171</v>
+        <v>0.000102150051127395</v>
       </c>
       <c r="G134" t="s">
         <v>139</v>
@@ -4126,19 +4126,19 @@
         <v>363.540771282579</v>
       </c>
       <c r="B135" t="n">
-        <v>-2.31816748334983</v>
+        <v>-2.3181673153453</v>
       </c>
       <c r="C135" t="n">
-        <v>0.264675262575847</v>
+        <v>0.264665899397039</v>
       </c>
       <c r="D135" t="n">
-        <v>-8.75853474476303</v>
+        <v>-8.7588439637541</v>
       </c>
       <c r="E135" t="n">
-        <v>0.00000000000000000197804753633069</v>
+        <v>0.00000000000000000197262959737542</v>
       </c>
       <c r="F135" t="n">
-        <v>0.00000000000000111405001416859</v>
+        <v>0.00000000000000111099859358389</v>
       </c>
       <c r="G135" t="s">
         <v>140</v>
@@ -4149,19 +4149,19 @@
         <v>2098.14152333054</v>
       </c>
       <c r="B136" t="n">
-        <v>-4.05243220131487</v>
+        <v>-4.05243228450086</v>
       </c>
       <c r="C136" t="n">
-        <v>0.204186384183026</v>
+        <v>0.204177770754427</v>
       </c>
       <c r="D136" t="n">
-        <v>-19.8467308069004</v>
+        <v>-19.8475684670634</v>
       </c>
       <c r="E136" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000117608100757603</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000000115664152709467</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000192089310967393</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000188914260620372</v>
       </c>
       <c r="G136" t="s">
         <v>141</v>
@@ -4172,19 +4172,19 @@
         <v>74.0738775546346</v>
       </c>
       <c r="B137" t="n">
-        <v>-3.44878576757356</v>
+        <v>-3.44878585402176</v>
       </c>
       <c r="C137" t="n">
-        <v>0.390442349524178</v>
+        <v>0.390440508970801</v>
       </c>
       <c r="D137" t="n">
-        <v>-8.83302175539231</v>
+        <v>-8.83306361604933</v>
       </c>
       <c r="E137" t="n">
-        <v>0.00000000000000000101885197451207</v>
+        <v>0.00000000000000000101847060635681</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0000000000000005943181892752</v>
+        <v>0.000000000000000594095729058063</v>
       </c>
       <c r="G137" t="s">
         <v>142</v>
@@ -4195,19 +4195,19 @@
         <v>1833.62523713336</v>
       </c>
       <c r="B138" t="n">
-        <v>-1.18572509847559</v>
+        <v>-1.18572514235476</v>
       </c>
       <c r="C138" t="n">
-        <v>0.274168737489087</v>
+        <v>0.274152141189015</v>
       </c>
       <c r="D138" t="n">
-        <v>-4.32480052005487</v>
+        <v>-4.32506248979925</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0000152669949025818</v>
+        <v>0.0000152488629315863</v>
       </c>
       <c r="F138" t="n">
-        <v>0.000636111805469054</v>
+        <v>0.000635356322095917</v>
       </c>
       <c r="G138" t="s">
         <v>143</v>
@@ -4218,19 +4218,19 @@
         <v>2090.57273903758</v>
       </c>
       <c r="B139" t="n">
-        <v>-1.47923972299642</v>
+        <v>-1.47923976442357</v>
       </c>
       <c r="C139" t="n">
-        <v>0.259684725919224</v>
+        <v>0.259669584224361</v>
       </c>
       <c r="D139" t="n">
-        <v>-5.69629083019903</v>
+        <v>-5.69662314838333</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0000000122441944933391</v>
+        <v>0.000000012220363162637</v>
       </c>
       <c r="F139" t="n">
-        <v>0.00000121941724792505</v>
+        <v>0.0000012170438508253</v>
       </c>
       <c r="G139" t="s">
         <v>144</v>
@@ -4241,19 +4241,19 @@
         <v>7921.76585262681</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.33273076445807</v>
+        <v>-1.3327307746811</v>
       </c>
       <c r="C140" t="n">
-        <v>0.234139157962141</v>
+        <v>0.234125692024041</v>
       </c>
       <c r="D140" t="n">
-        <v>-5.69204560252825</v>
+        <v>-5.69237302903199</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0000000125526315195336</v>
+        <v>0.000000012528576119328</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0000012425583673245</v>
+        <v>0.00000124017717428476</v>
       </c>
       <c r="G140" t="s">
         <v>145</v>
@@ -4264,19 +4264,19 @@
         <v>97.4064442063048</v>
       </c>
       <c r="B141" t="n">
-        <v>1.60473066656396</v>
+        <v>1.60473081985008</v>
       </c>
       <c r="C141" t="n">
-        <v>0.266945880039285</v>
+        <v>0.266950099000575</v>
       </c>
       <c r="D141" t="n">
-        <v>6.01144571449387</v>
+        <v>6.01135128197356</v>
       </c>
       <c r="E141" t="n">
-        <v>0.00000000183876086393343</v>
+        <v>0.00000000183983245955705</v>
       </c>
       <c r="F141" t="n">
-        <v>0.000000236476229847439</v>
+        <v>0.000000236614043794845</v>
       </c>
       <c r="G141" t="s">
         <v>146</v>
@@ -4287,19 +4287,19 @@
         <v>163.236175114137</v>
       </c>
       <c r="B142" t="n">
-        <v>1.03921287633424</v>
+        <v>1.03921300454157</v>
       </c>
       <c r="C142" t="n">
-        <v>0.284185508796277</v>
+        <v>0.284180643866776</v>
       </c>
       <c r="D142" t="n">
-        <v>3.65681163946758</v>
+        <v>3.65687469210168</v>
       </c>
       <c r="E142" t="n">
-        <v>0.000255371892301951</v>
+        <v>0.000255309109398505</v>
       </c>
       <c r="F142" t="n">
-        <v>0.00652736951012169</v>
+        <v>0.00652576476338933</v>
       </c>
       <c r="G142" t="s">
         <v>147</v>
@@ -4310,19 +4310,19 @@
         <v>472.444740138901</v>
       </c>
       <c r="B143" t="n">
-        <v>-1.77887691658873</v>
+        <v>-1.77887687707566</v>
       </c>
       <c r="C143" t="n">
-        <v>0.25781603511193</v>
+        <v>0.25780590128399</v>
       </c>
       <c r="D143" t="n">
-        <v>-6.89979161232712</v>
+        <v>-6.90006267589705</v>
       </c>
       <c r="E143" t="n">
-        <v>0.00000000000520788779159997</v>
+        <v>0.00000000000519796007304663</v>
       </c>
       <c r="F143" t="n">
-        <v>0.00000000114946528784057</v>
+        <v>0.00000000114727407936582</v>
       </c>
       <c r="G143" t="s">
         <v>148</v>
@@ -4333,19 +4333,19 @@
         <v>144.289438391469</v>
       </c>
       <c r="B144" t="n">
-        <v>-1.03834184302555</v>
+        <v>-1.03834249515919</v>
       </c>
       <c r="C144" t="n">
-        <v>0.191976461629751</v>
+        <v>0.191984385130421</v>
       </c>
       <c r="D144" t="n">
-        <v>-5.40869351487537</v>
+        <v>-5.40847368630427</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0000000634861653669357</v>
+        <v>0.0000000635641240514198</v>
       </c>
       <c r="F144" t="n">
-        <v>0.00000549144899081697</v>
+        <v>0.00000549819196230165</v>
       </c>
       <c r="G144" t="s">
         <v>149</v>
@@ -4356,19 +4356,19 @@
         <v>494.303795392356</v>
       </c>
       <c r="B145" t="n">
-        <v>-1.18558085317265</v>
+        <v>-1.18558062686762</v>
       </c>
       <c r="C145" t="n">
-        <v>0.260657630943903</v>
+        <v>0.260646723467839</v>
       </c>
       <c r="D145" t="n">
-        <v>-4.54842180863603</v>
+        <v>-4.54861128156059</v>
       </c>
       <c r="E145" t="n">
-        <v>0.00000540497180944942</v>
+        <v>0.00000540010855082899</v>
       </c>
       <c r="F145" t="n">
-        <v>0.000255882332068804</v>
+        <v>0.000255652095538231</v>
       </c>
       <c r="G145" t="s">
         <v>150</v>
@@ -4379,19 +4379,19 @@
         <v>1356.59975634159</v>
       </c>
       <c r="B146" t="n">
-        <v>-1.96596829270243</v>
+        <v>-1.96596834967195</v>
       </c>
       <c r="C146" t="n">
-        <v>0.201796216903578</v>
+        <v>0.201788561407603</v>
       </c>
       <c r="D146" t="n">
-        <v>-9.7423446428721</v>
+        <v>-9.74271453227119</v>
       </c>
       <c r="E146" t="n">
-        <v>0.000000000000000000000198911031424484</v>
+        <v>0.000000000000000000000198188140176695</v>
       </c>
       <c r="F146" t="n">
-        <v>0.000000000000000000216587591750406</v>
+        <v>0.000000000000000000215800459567064</v>
       </c>
       <c r="G146" t="s">
         <v>151</v>
@@ -4402,19 +4402,19 @@
         <v>94.1117755914907</v>
       </c>
       <c r="B147" t="n">
-        <v>-1.30602467174691</v>
+        <v>-1.30602477978492</v>
       </c>
       <c r="C147" t="n">
-        <v>0.389072093840415</v>
+        <v>0.389062932358058</v>
       </c>
       <c r="D147" t="n">
-        <v>-3.35676778782958</v>
+        <v>-3.35684710920486</v>
       </c>
       <c r="E147" t="n">
-        <v>0.000788593136234605</v>
+        <v>0.000788366942141964</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0164286883853569</v>
+        <v>0.0164239761045978</v>
       </c>
       <c r="G147" t="s">
         <v>152</v>
@@ -4425,19 +4425,19 @@
         <v>316.740051001628</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.03457229244515</v>
+        <v>-1.03457240416684</v>
       </c>
       <c r="C148" t="n">
-        <v>0.156279846211348</v>
+        <v>0.156283787627829</v>
       </c>
       <c r="D148" t="n">
-        <v>-6.61999814772041</v>
+        <v>-6.6198319088001</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0000000000359203369877878</v>
+        <v>0.0000000000359607544965158</v>
       </c>
       <c r="F148" t="n">
-        <v>0.00000000674352717266135</v>
+        <v>0.00000000675111497921371</v>
       </c>
       <c r="G148" t="s">
         <v>153</v>
@@ -4448,19 +4448,19 @@
         <v>944.644159830716</v>
       </c>
       <c r="B149" t="n">
-        <v>-2.17748118055401</v>
+        <v>-2.17748115117639</v>
       </c>
       <c r="C149" t="n">
-        <v>0.230568597126711</v>
+        <v>0.230558534301496</v>
       </c>
       <c r="D149" t="n">
-        <v>-9.44396248096767</v>
+        <v>-9.44437453930442</v>
       </c>
       <c r="E149" t="n">
-        <v>0.00000000000000000000358942575253539</v>
+        <v>0.000000000000000000003575331790875</v>
       </c>
       <c r="F149" t="n">
-        <v>0.00000000000000000293130454080802</v>
+        <v>0.00000000000000000291979470701807</v>
       </c>
       <c r="G149" t="s">
         <v>154</v>
@@ -4471,19 +4471,19 @@
         <v>294.802007862984</v>
       </c>
       <c r="B150" t="n">
-        <v>1.11500831571107</v>
+        <v>1.11500837851255</v>
       </c>
       <c r="C150" t="n">
-        <v>0.180831595542594</v>
+        <v>0.180833029763173</v>
       </c>
       <c r="D150" t="n">
-        <v>6.16600385770768</v>
+        <v>6.16595530126781</v>
       </c>
       <c r="E150" t="n">
-        <v>0.000000000700373764397376</v>
+        <v>0.000000000700588745306772</v>
       </c>
       <c r="F150" t="n">
-        <v>0.000000102135756195557</v>
+        <v>0.000000102167106938353</v>
       </c>
       <c r="G150" t="s">
         <v>155</v>
@@ -4494,19 +4494,19 @@
         <v>102.990705116069</v>
       </c>
       <c r="B151" t="n">
-        <v>2.1571760497319</v>
+        <v>2.15717616200401</v>
       </c>
       <c r="C151" t="n">
-        <v>0.265680305608355</v>
+        <v>0.265684468170624</v>
       </c>
       <c r="D151" t="n">
-        <v>8.119442819792</v>
+        <v>8.11931603250009</v>
       </c>
       <c r="E151" t="n">
-        <v>0.000000000000000468328770807689</v>
+        <v>0.000000000000000468818246483246</v>
       </c>
       <c r="F151" t="n">
-        <v>0.000000000000191230345340049</v>
+        <v>0.000000000000191430210495272</v>
       </c>
       <c r="G151" t="s">
         <v>156</v>
@@ -4517,19 +4517,19 @@
         <v>926.268841487501</v>
       </c>
       <c r="B152" t="n">
-        <v>1.19277904362745</v>
+        <v>1.19277901142125</v>
       </c>
       <c r="C152" t="n">
-        <v>0.322998803532371</v>
+        <v>0.322978342578556</v>
       </c>
       <c r="D152" t="n">
-        <v>3.69282805565535</v>
+        <v>3.69306189974994</v>
       </c>
       <c r="E152" t="n">
-        <v>0.000221773976969592</v>
+        <v>0.000221570063184618</v>
       </c>
       <c r="F152" t="n">
-        <v>0.00581841147499253</v>
+        <v>0.00581817337941217</v>
       </c>
       <c r="G152" t="s">
         <v>157</v>
@@ -4540,19 +4540,19 @@
         <v>64.3321644696087</v>
       </c>
       <c r="B153" t="n">
-        <v>-1.45101808233282</v>
+        <v>-1.45101883064388</v>
       </c>
       <c r="C153" t="n">
-        <v>0.299018564244399</v>
+        <v>0.299026549181127</v>
       </c>
       <c r="D153" t="n">
-        <v>-4.8526019981383</v>
+        <v>-4.85247492109793</v>
       </c>
       <c r="E153" t="n">
-        <v>0.00000121852077614917</v>
+        <v>0.00000121930206739088</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0000747331003375988</v>
+        <v>0.000074716806010093</v>
       </c>
       <c r="G153" t="s">
         <v>158</v>
@@ -4563,19 +4563,19 @@
         <v>88.9554429361813</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.09435163422408</v>
+        <v>-1.09435138623943</v>
       </c>
       <c r="C154" t="n">
-        <v>0.253259226598372</v>
+        <v>0.253267221328658</v>
       </c>
       <c r="D154" t="n">
-        <v>-4.32107311122583</v>
+        <v>-4.32093573143173</v>
       </c>
       <c r="E154" t="n">
-        <v>0.0000155272211401286</v>
+        <v>0.0000155368925456317</v>
       </c>
       <c r="F154" t="n">
-        <v>0.00064530814982626</v>
+        <v>0.000645710091470236</v>
       </c>
       <c r="G154" t="s">
         <v>159</v>
@@ -4586,19 +4586,19 @@
         <v>741.982256967957</v>
       </c>
       <c r="B155" t="n">
-        <v>-1.53057735144104</v>
+        <v>-1.53057726685171</v>
       </c>
       <c r="C155" t="n">
-        <v>0.261553222821497</v>
+        <v>0.261540344884425</v>
       </c>
       <c r="D155" t="n">
-        <v>-5.85187723909494</v>
+        <v>-5.85216505517752</v>
       </c>
       <c r="E155" t="n">
-        <v>0.00000000486055345851768</v>
+        <v>0.00000000485214729456381</v>
       </c>
       <c r="F155" t="n">
-        <v>0.000000537528544992732</v>
+        <v>0.000000536770735101623</v>
       </c>
       <c r="G155" t="s">
         <v>160</v>
@@ -4609,19 +4609,19 @@
         <v>300.430665487647</v>
       </c>
       <c r="B156" t="n">
-        <v>1.68748225150463</v>
+        <v>1.68748206991535</v>
       </c>
       <c r="C156" t="n">
-        <v>0.450208455015263</v>
+        <v>0.450179822729942</v>
       </c>
       <c r="D156" t="n">
-        <v>3.74822425635569</v>
+        <v>3.74846224711331</v>
       </c>
       <c r="E156" t="n">
-        <v>0.000178090987448455</v>
+        <v>0.000177922112712943</v>
       </c>
       <c r="F156" t="n">
-        <v>0.00488046996307989</v>
+        <v>0.00487584205862499</v>
       </c>
       <c r="G156" t="s">
         <v>161</v>
@@ -4632,19 +4632,19 @@
         <v>52.9874884906139</v>
       </c>
       <c r="B157" t="n">
-        <v>-4.49840176691371</v>
+        <v>-4.49840262620562</v>
       </c>
       <c r="C157" t="n">
-        <v>0.43657683854996</v>
+        <v>0.436587322336832</v>
       </c>
       <c r="D157" t="n">
-        <v>-10.3038030644379</v>
+        <v>-10.3035576070508</v>
       </c>
       <c r="E157" t="n">
-        <v>0.000000000000000000000000677295343856786</v>
+        <v>0.000000000000000000000000679026353747267</v>
       </c>
       <c r="F157" t="n">
-        <v>0.000000000000000000000850943450093299</v>
+        <v>0.000000000000000000000853118264288778</v>
       </c>
       <c r="G157" t="s">
         <v>162</v>
@@ -4655,19 +4655,19 @@
         <v>115.694942890251</v>
       </c>
       <c r="B158" t="n">
-        <v>-4.29341461996627</v>
+        <v>-4.29341322627958</v>
       </c>
       <c r="C158" t="n">
-        <v>0.401470529919449</v>
+        <v>0.401457685056297</v>
       </c>
       <c r="D158" t="n">
-        <v>-10.6942211196117</v>
+        <v>-10.6945598156316</v>
       </c>
       <c r="E158" t="n">
-        <v>0.000000000000000000000000010832593511906</v>
+        <v>0.0000000000000000000000000107930911410065</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0000000000000000000000160844318027236</v>
+        <v>0.0000000000000000000000160257779641871</v>
       </c>
       <c r="G158" t="s">
         <v>163</v>
@@ -4678,19 +4678,19 @@
         <v>466.66884898783</v>
       </c>
       <c r="B159" t="n">
-        <v>1.20029984426702</v>
+        <v>1.20029972743065</v>
       </c>
       <c r="C159" t="n">
-        <v>0.402752529698934</v>
+        <v>0.402725993232551</v>
       </c>
       <c r="D159" t="n">
-        <v>2.98024160186969</v>
+        <v>2.98043768617027</v>
       </c>
       <c r="E159" t="n">
-        <v>0.00288021119984817</v>
+        <v>0.00287836792990962</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0439883707588921</v>
+        <v>0.0439707544554138</v>
       </c>
       <c r="G159" t="s">
         <v>164</v>
@@ -4701,19 +4701,19 @@
         <v>502.268417776692</v>
       </c>
       <c r="B160" t="n">
-        <v>-1.20694640964057</v>
+        <v>-1.20694635718043</v>
       </c>
       <c r="C160" t="n">
-        <v>0.282475087305318</v>
+        <v>0.28246155044483</v>
       </c>
       <c r="D160" t="n">
-        <v>-4.27275347059551</v>
+        <v>-4.2729580549271</v>
       </c>
       <c r="E160" t="n">
-        <v>0.0000193073883428681</v>
+        <v>0.0000192896753923159</v>
       </c>
       <c r="F160" t="n">
-        <v>0.000776718162078977</v>
+        <v>0.000776005586656888</v>
       </c>
       <c r="G160" t="s">
         <v>165</v>
@@ -4724,19 +4724,19 @@
         <v>55.9792934092356</v>
       </c>
       <c r="B161" t="n">
-        <v>-1.32732891958891</v>
+        <v>-1.32732872201161</v>
       </c>
       <c r="C161" t="n">
-        <v>0.326476608889792</v>
+        <v>0.326484941301625</v>
       </c>
       <c r="D161" t="n">
-        <v>-4.06561720946133</v>
+        <v>-4.06551284331778</v>
       </c>
       <c r="E161" t="n">
-        <v>0.0000479055104253072</v>
+        <v>0.0000479269547444582</v>
       </c>
       <c r="F161" t="n">
-        <v>0.00166831706135723</v>
+        <v>0.00166906386320093</v>
       </c>
       <c r="G161" t="s">
         <v>166</v>
@@ -4747,19 +4747,19 @@
         <v>101.821415091894</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.38982417383383</v>
+        <v>-1.38982422608574</v>
       </c>
       <c r="C162" t="n">
-        <v>0.276522470913594</v>
+        <v>0.276524959154958</v>
       </c>
       <c r="D162" t="n">
-        <v>-5.02608040945834</v>
+        <v>-5.02603537247761</v>
       </c>
       <c r="E162" t="n">
-        <v>0.000000500606053025922</v>
+        <v>0.000000500723568990378</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0000355409165965206</v>
+        <v>0.0000355542013948608</v>
       </c>
       <c r="G162" t="s">
         <v>167</v>
@@ -4770,19 +4770,19 @@
         <v>207.815540676393</v>
       </c>
       <c r="B163" t="n">
-        <v>-1.52856276619772</v>
+        <v>-1.52856279132387</v>
       </c>
       <c r="C163" t="n">
-        <v>0.239971329898928</v>
+        <v>0.239969269280916</v>
       </c>
       <c r="D163" t="n">
-        <v>-6.36977245090707</v>
+        <v>-6.36982725289914</v>
       </c>
       <c r="E163" t="n">
-        <v>0.000000000189308852227125</v>
+        <v>0.000000000189241223966146</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0000000309198148342563</v>
+        <v>0.0000000309087691103907</v>
       </c>
       <c r="G163" t="s">
         <v>168</v>
@@ -4793,19 +4793,19 @@
         <v>828.224137085069</v>
       </c>
       <c r="B164" t="n">
-        <v>1.22121298703144</v>
+        <v>1.22121290451801</v>
       </c>
       <c r="C164" t="n">
-        <v>0.188072388318196</v>
+        <v>0.188067511713265</v>
       </c>
       <c r="D164" t="n">
-        <v>6.49331354778829</v>
+        <v>6.49348148116043</v>
       </c>
       <c r="E164" t="n">
-        <v>0.0000000000839686719344803</v>
+        <v>0.0000000000838750807497778</v>
       </c>
       <c r="F164" t="n">
-        <v>0.0000000147468851473749</v>
+        <v>0.0000000147304483213561</v>
       </c>
       <c r="G164" t="s">
         <v>169</v>
@@ -4816,19 +4816,19 @@
         <v>376.56477460931</v>
       </c>
       <c r="B165" t="n">
-        <v>-1.15703346506544</v>
+        <v>-1.15703365503902</v>
       </c>
       <c r="C165" t="n">
-        <v>0.132645390147941</v>
+        <v>0.132651383861206</v>
       </c>
       <c r="D165" t="n">
-        <v>-8.72275669569057</v>
+        <v>-8.72236399922995</v>
       </c>
       <c r="E165" t="n">
-        <v>0.00000000000000000271509262653246</v>
+        <v>0.00000000000000000272452825668822</v>
       </c>
       <c r="F165" t="n">
-        <v>0.00000000000000143050347965015</v>
+        <v>0.00000000000000143547483924157</v>
       </c>
       <c r="G165" t="s">
         <v>170</v>
@@ -4839,19 +4839,19 @@
         <v>185.899169236577</v>
       </c>
       <c r="B166" t="n">
-        <v>1.46268158697456</v>
+        <v>1.46268156060967</v>
       </c>
       <c r="C166" t="n">
-        <v>0.235427685058824</v>
+        <v>0.2354270659257</v>
       </c>
       <c r="D166" t="n">
-        <v>6.2128699375738</v>
+        <v>6.21288616437707</v>
       </c>
       <c r="E166" t="n">
-        <v>0.00000000052025510648115</v>
+        <v>0.000000000520201363555425</v>
       </c>
       <c r="F166" t="n">
-        <v>0.0000000765524923797894</v>
+        <v>0.0000000765445844229797</v>
       </c>
       <c r="G166" t="s">
         <v>171</v>
@@ -4862,19 +4862,19 @@
         <v>163.325955803065</v>
       </c>
       <c r="B167" t="n">
-        <v>-1.25875312606582</v>
+        <v>-1.258753224086</v>
       </c>
       <c r="C167" t="n">
-        <v>0.154959673437322</v>
+        <v>0.154970531292043</v>
       </c>
       <c r="D167" t="n">
-        <v>-8.12310130851533</v>
+        <v>-8.12253280408437</v>
       </c>
       <c r="E167" t="n">
-        <v>0.000000000000000454419696685007</v>
+        <v>0.000000000000000456554044827908</v>
       </c>
       <c r="F167" t="n">
-        <v>0.000000000000190308638614262</v>
+        <v>0.000000000000191202492671134</v>
       </c>
       <c r="G167" t="s">
         <v>172</v>
@@ -4885,19 +4885,19 @@
         <v>112.721874852601</v>
       </c>
       <c r="B168" t="n">
-        <v>-1.31791160277878</v>
+        <v>-1.317912520184</v>
       </c>
       <c r="C168" t="n">
-        <v>0.206079896458621</v>
+        <v>0.206090523761055</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.39514880115149</v>
+        <v>-6.39482347918144</v>
       </c>
       <c r="E168" t="n">
-        <v>0.000000000160391083966997</v>
+        <v>0.000000000160732931956389</v>
       </c>
       <c r="F168" t="n">
-        <v>0.0000000267313017799282</v>
+        <v>0.0000000267882752820786</v>
       </c>
       <c r="G168" t="s">
         <v>173</v>
@@ -4908,19 +4908,19 @@
         <v>947.670447217207</v>
       </c>
       <c r="B169" t="n">
-        <v>1.04236690186125</v>
+        <v>1.04236693406151</v>
       </c>
       <c r="C169" t="n">
-        <v>0.130139123744969</v>
+        <v>0.130140391601743</v>
       </c>
       <c r="D169" t="n">
-        <v>8.00963516477918</v>
+        <v>8.00955738055076</v>
       </c>
       <c r="E169" t="n">
-        <v>0.00000000000000115049230469227</v>
+        <v>0.00000000000000115122016382008</v>
       </c>
       <c r="F169" t="n">
-        <v>0.000000000000447404543155687</v>
+        <v>0.000000000000447687593706509</v>
       </c>
       <c r="G169" t="s">
         <v>174</v>
@@ -4931,19 +4931,19 @@
         <v>137.908414048748</v>
       </c>
       <c r="B170" t="n">
-        <v>1.54227407657778</v>
+        <v>1.5422739585388</v>
       </c>
       <c r="C170" t="n">
-        <v>0.285057176896343</v>
+        <v>0.285054209928138</v>
       </c>
       <c r="D170" t="n">
-        <v>5.41040254930542</v>
+        <v>5.41045844903539</v>
       </c>
       <c r="E170" t="n">
-        <v>0.0000000628832351169154</v>
+        <v>0.0000000628636082445677</v>
       </c>
       <c r="F170" t="n">
-        <v>0.00000549144899081697</v>
+        <v>0.00000549064873507232</v>
       </c>
       <c r="G170" t="s">
         <v>175</v>
@@ -4954,19 +4954,19 @@
         <v>921.932574722966</v>
       </c>
       <c r="B171" t="n">
-        <v>1.00688823557412</v>
+        <v>1.00688811186172</v>
       </c>
       <c r="C171" t="n">
-        <v>0.244490292945838</v>
+        <v>0.244478639559341</v>
       </c>
       <c r="D171" t="n">
-        <v>4.11831579668146</v>
+        <v>4.11851159543665</v>
       </c>
       <c r="E171" t="n">
-        <v>0.0000381651458771405</v>
+        <v>0.0000381327385145172</v>
       </c>
       <c r="F171" t="n">
-        <v>0.00137302054539942</v>
+        <v>0.0013718546655454</v>
       </c>
       <c r="G171" t="s">
         <v>176</v>
@@ -4977,19 +4977,19 @@
         <v>62.0808920193479</v>
       </c>
       <c r="B172" t="n">
-        <v>-1.1012159049613</v>
+        <v>-1.10121645009336</v>
       </c>
       <c r="C172" t="n">
-        <v>0.270151106860976</v>
+        <v>0.270165782173322</v>
       </c>
       <c r="D172" t="n">
-        <v>-4.07629610611963</v>
+        <v>-4.07607670088615</v>
       </c>
       <c r="E172" t="n">
-        <v>0.0000457587425772705</v>
+        <v>0.0000458019164951762</v>
       </c>
       <c r="F172" t="n">
-        <v>0.00160117433142186</v>
+        <v>0.00160189015442337</v>
       </c>
       <c r="G172" t="s">
         <v>177</v>
@@ -5000,19 +5000,19 @@
         <v>64.3767675507393</v>
       </c>
       <c r="B173" t="n">
-        <v>-1.07061047693067</v>
+        <v>-1.07061023814309</v>
       </c>
       <c r="C173" t="n">
-        <v>0.22437131299291</v>
+        <v>0.224390959166212</v>
       </c>
       <c r="D173" t="n">
-        <v>-4.77160142555524</v>
+        <v>-4.77118259185327</v>
       </c>
       <c r="E173" t="n">
-        <v>0.00000182766905150922</v>
+        <v>0.00000183147417019749</v>
       </c>
       <c r="F173" t="n">
-        <v>0.000102208006509171</v>
+        <v>0.000102181125536061</v>
       </c>
       <c r="G173" t="s">
         <v>178</v>
@@ -5023,19 +5023,19 @@
         <v>93.8941698491087</v>
       </c>
       <c r="B174" t="n">
-        <v>-1.91581954877222</v>
+        <v>-1.91581938817133</v>
       </c>
       <c r="C174" t="n">
-        <v>0.419317259488246</v>
+        <v>0.419304948486803</v>
       </c>
       <c r="D174" t="n">
-        <v>-4.5689021985653</v>
+        <v>-4.56903596078507</v>
       </c>
       <c r="E174" t="n">
-        <v>0.00000490285483964507</v>
+        <v>0.00000489972716920223</v>
       </c>
       <c r="F174" t="n">
-        <v>0.000234359993730578</v>
+        <v>0.000234351852244523</v>
       </c>
       <c r="G174" t="s">
         <v>179</v>
@@ -5046,19 +5046,19 @@
         <v>167.418646063061</v>
       </c>
       <c r="B175" t="n">
-        <v>-1.81592312647523</v>
+        <v>-1.81592319508706</v>
       </c>
       <c r="C175" t="n">
-        <v>0.325289438967091</v>
+        <v>0.325280134311897</v>
       </c>
       <c r="D175" t="n">
-        <v>-5.58248411704183</v>
+        <v>-5.58264401522244</v>
       </c>
       <c r="E175" t="n">
-        <v>0.0000000237107269513131</v>
+        <v>0.0000000236889305320424</v>
       </c>
       <c r="F175" t="n">
-        <v>0.00000225155408892906</v>
+        <v>0.00000224948431616191</v>
       </c>
       <c r="G175" t="s">
         <v>180</v>
@@ -5069,19 +5069,19 @@
         <v>501.259096698975</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.12677189323908</v>
+        <v>-1.12677185272693</v>
       </c>
       <c r="C176" t="n">
-        <v>0.198070582380481</v>
+        <v>0.198066813672373</v>
       </c>
       <c r="D176" t="n">
-        <v>-5.68873923475734</v>
+        <v>-5.68884727247013</v>
       </c>
       <c r="E176" t="n">
-        <v>0.0000000127980723927168</v>
+        <v>0.0000000127899792652707</v>
       </c>
       <c r="F176" t="n">
-        <v>0.00000125922238789303</v>
+        <v>0.00000125842609240763</v>
       </c>
       <c r="G176" t="s">
         <v>181</v>
@@ -5092,19 +5092,19 @@
         <v>67.5894726926941</v>
       </c>
       <c r="B177" t="n">
-        <v>-1.2797184074697</v>
+        <v>-1.27971794149422</v>
       </c>
       <c r="C177" t="n">
-        <v>0.274028459472891</v>
+        <v>0.274038562868894</v>
       </c>
       <c r="D177" t="n">
-        <v>-4.67002007722595</v>
+        <v>-4.66984620010018</v>
       </c>
       <c r="E177" t="n">
-        <v>0.00000301170299373439</v>
+        <v>0.00000301425320210254</v>
       </c>
       <c r="F177" t="n">
-        <v>0.000152353532610649</v>
+        <v>0.00015242042585121</v>
       </c>
       <c r="G177" t="s">
         <v>182</v>
@@ -5115,19 +5115,19 @@
         <v>276.836244261845</v>
       </c>
       <c r="B178" t="n">
-        <v>1.34196912364031</v>
+        <v>1.34196906169556</v>
       </c>
       <c r="C178" t="n">
-        <v>0.287092425698635</v>
+        <v>0.287082119327998</v>
       </c>
       <c r="D178" t="n">
-        <v>4.67434527530516</v>
+        <v>4.67451287052233</v>
       </c>
       <c r="E178" t="n">
-        <v>0.00000294892855909215</v>
+        <v>0.00000294652158108342</v>
       </c>
       <c r="F178" t="n">
-        <v>0.000150046262167141</v>
+        <v>0.000149923791226902</v>
       </c>
       <c r="G178" t="s">
         <v>183</v>
@@ -5138,19 +5138,19 @@
         <v>71.3049866328685</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.21475621163158</v>
+        <v>-1.21475674289647</v>
       </c>
       <c r="C179" t="n">
-        <v>0.267642501093846</v>
+        <v>0.267653019034764</v>
       </c>
       <c r="D179" t="n">
-        <v>-4.53872687135606</v>
+        <v>-4.538550498243</v>
       </c>
       <c r="E179" t="n">
-        <v>0.00000565948841055674</v>
+        <v>0.00000566422323716983</v>
       </c>
       <c r="F179" t="n">
-        <v>0.000264860814354221</v>
+        <v>0.000265082401526346</v>
       </c>
       <c r="G179" t="s">
         <v>184</v>
@@ -5161,19 +5161,19 @@
         <v>227.106214977442</v>
       </c>
       <c r="B180" t="n">
-        <v>-1.20945709565934</v>
+        <v>-1.20945704866625</v>
       </c>
       <c r="C180" t="n">
-        <v>0.260536041993188</v>
+        <v>0.260530932123602</v>
       </c>
       <c r="D180" t="n">
-        <v>-4.64218726287001</v>
+        <v>-4.64227813107603</v>
       </c>
       <c r="E180" t="n">
-        <v>0.00000344740196617412</v>
+        <v>0.00000344588575905775</v>
       </c>
       <c r="F180" t="n">
-        <v>0.000171665903394884</v>
+        <v>0.000171590402752105</v>
       </c>
       <c r="G180" t="s">
         <v>185</v>
@@ -5184,19 +5184,19 @@
         <v>2503.00165532414</v>
       </c>
       <c r="B181" t="n">
-        <v>-1.06955597882088</v>
+        <v>-1.06955596350531</v>
       </c>
       <c r="C181" t="n">
-        <v>0.193543160908675</v>
+        <v>0.193535296464681</v>
       </c>
       <c r="D181" t="n">
-        <v>-5.52618844189259</v>
+        <v>-5.52641292334236</v>
       </c>
       <c r="E181" t="n">
-        <v>0.0000000327262620621302</v>
+        <v>0.0000000326844362892889</v>
       </c>
       <c r="F181" t="n">
-        <v>0.00000300291032730771</v>
+        <v>0.00000299907246018515</v>
       </c>
       <c r="G181" t="s">
         <v>186</v>
@@ -5207,19 +5207,19 @@
         <v>646.316056229845</v>
       </c>
       <c r="B182" t="n">
-        <v>1.0970257575244</v>
+        <v>1.09702576495163</v>
       </c>
       <c r="C182" t="n">
-        <v>0.149281835049302</v>
+        <v>0.149282392705333</v>
       </c>
       <c r="D182" t="n">
-        <v>7.34868885529235</v>
+        <v>7.34866145344439</v>
       </c>
       <c r="E182" t="n">
-        <v>0.000000000000200160510779472</v>
+        <v>0.000000000000200201541741689</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0000000000544870270426853</v>
+        <v>0.0000000000544981963544501</v>
       </c>
       <c r="G182" t="s">
         <v>187</v>
@@ -5230,19 +5230,19 @@
         <v>86.9520088835919</v>
       </c>
       <c r="B183" t="n">
-        <v>-1.54687630543031</v>
+        <v>-1.54687674306416</v>
       </c>
       <c r="C183" t="n">
-        <v>0.259426020626076</v>
+        <v>0.259434031547829</v>
       </c>
       <c r="D183" t="n">
-        <v>-5.96268755808387</v>
+        <v>-5.9625051263908</v>
       </c>
       <c r="E183" t="n">
-        <v>0.00000000248122587205133</v>
+        <v>0.00000000248399856075736</v>
       </c>
       <c r="F183" t="n">
-        <v>0.000000307014107334957</v>
+        <v>0.000000307357185551893</v>
       </c>
       <c r="G183" t="s">
         <v>188</v>
@@ -5253,19 +5253,19 @@
         <v>433.521530111596</v>
       </c>
       <c r="B184" t="n">
-        <v>1.2583256605527</v>
+        <v>1.2583254740801</v>
       </c>
       <c r="C184" t="n">
-        <v>0.320381131611612</v>
+        <v>0.320364409766321</v>
       </c>
       <c r="D184" t="n">
-        <v>3.9275897872729</v>
+        <v>3.92779421096725</v>
       </c>
       <c r="E184" t="n">
-        <v>0.0000858013931973995</v>
+        <v>0.0000857285159484524</v>
       </c>
       <c r="F184" t="n">
-        <v>0.00274245431525073</v>
+        <v>0.00274105861289429</v>
       </c>
       <c r="G184" t="s">
         <v>189</v>
@@ -5276,19 +5276,19 @@
         <v>61.3628980229956</v>
       </c>
       <c r="B185" t="n">
-        <v>-1.24452342628518</v>
+        <v>-1.24452355277952</v>
       </c>
       <c r="C185" t="n">
-        <v>0.34191448482232</v>
+        <v>0.341917827384749</v>
       </c>
       <c r="D185" t="n">
-        <v>-3.63986751521192</v>
+        <v>-3.63983230210193</v>
       </c>
       <c r="E185" t="n">
-        <v>0.000272778353505174</v>
+        <v>0.000272815658555097</v>
       </c>
       <c r="F185" t="n">
-        <v>0.00680196770656489</v>
+        <v>0.00680487429942865</v>
       </c>
       <c r="G185" t="s">
         <v>190</v>
@@ -5299,19 +5299,19 @@
         <v>79.4735147011476</v>
       </c>
       <c r="B186" t="n">
-        <v>-1.20009988088617</v>
+        <v>-1.20009917321013</v>
       </c>
       <c r="C186" t="n">
-        <v>0.244658595503738</v>
+        <v>0.244670473102772</v>
       </c>
       <c r="D186" t="n">
-        <v>-4.9052021998869</v>
+        <v>-4.90496118306043</v>
       </c>
       <c r="E186" t="n">
-        <v>0.000000933311438159307</v>
+        <v>0.000000934458171735745</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0000600148650372282</v>
+        <v>0.0000600886036179525</v>
       </c>
       <c r="G186" t="s">
         <v>191</v>
@@ -5325,16 +5325,16 @@
         <v>1.62589945345453</v>
       </c>
       <c r="C187" t="n">
-        <v>0.517522618945491</v>
+        <v>0.517522618945492</v>
       </c>
       <c r="D187" t="n">
         <v>3.14169737502</v>
       </c>
       <c r="E187" t="n">
-        <v>0.0016797155131486</v>
+        <v>0.00167971551314859</v>
       </c>
       <c r="F187" t="n">
-        <v>0.0294049233400387</v>
+        <v>0.0294049233400384</v>
       </c>
       <c r="G187" t="s">
         <v>192</v>
@@ -5345,19 +5345,19 @@
         <v>221.976914981453</v>
       </c>
       <c r="B188" t="n">
-        <v>1.13276207754721</v>
+        <v>1.13276219859303</v>
       </c>
       <c r="C188" t="n">
-        <v>0.180590172237852</v>
+        <v>0.180594150863753</v>
       </c>
       <c r="D188" t="n">
-        <v>6.27255660432764</v>
+        <v>6.27241908542001</v>
       </c>
       <c r="E188" t="n">
-        <v>0.000000000355167268485906</v>
+        <v>0.000000000355481202886945</v>
       </c>
       <c r="F188" t="n">
-        <v>0.0000000557783365017337</v>
+        <v>0.0000000558276392956969</v>
       </c>
       <c r="G188" t="s">
         <v>193</v>
@@ -5368,19 +5368,19 @@
         <v>6385.07993752254</v>
       </c>
       <c r="B189" t="n">
-        <v>1.00178873773278</v>
+        <v>1.00178874120583</v>
       </c>
       <c r="C189" t="n">
-        <v>0.14122103565242</v>
+        <v>0.141218527041995</v>
       </c>
       <c r="D189" t="n">
-        <v>7.09376427601362</v>
+        <v>7.09389031446224</v>
       </c>
       <c r="E189" t="n">
-        <v>0.00000000000130512362671869</v>
+        <v>0.00000000000130393491672789</v>
       </c>
       <c r="F189" t="n">
-        <v>0.000000000304522631359947</v>
+        <v>0.000000000304245271355952</v>
       </c>
       <c r="G189" t="s">
         <v>194</v>
@@ -5391,19 +5391,19 @@
         <v>79.7308759685063</v>
       </c>
       <c r="B190" t="n">
-        <v>-3.25216816701764</v>
+        <v>-3.25216776607391</v>
       </c>
       <c r="C190" t="n">
-        <v>0.420478585258708</v>
+        <v>0.420468012389984</v>
       </c>
       <c r="D190" t="n">
-        <v>-7.73444422863218</v>
+        <v>-7.73463776135609</v>
       </c>
       <c r="E190" t="n">
-        <v>0.0000000000000103855795132661</v>
+        <v>0.0000000000000103697936585569</v>
       </c>
       <c r="F190" t="n">
-        <v>0.00000000000353390979562866</v>
+        <v>0.00000000000352853832969188</v>
       </c>
       <c r="G190" t="s">
         <v>195</v>
@@ -5414,19 +5414,19 @@
         <v>959.341582226346</v>
       </c>
       <c r="B191" t="n">
-        <v>1.09698846071665</v>
+        <v>1.09698843680842</v>
       </c>
       <c r="C191" t="n">
-        <v>0.153714143145289</v>
+        <v>0.153712789869231</v>
       </c>
       <c r="D191" t="n">
-        <v>7.13654864978681</v>
+        <v>7.13661132389614</v>
       </c>
       <c r="E191" t="n">
-        <v>0.000000000000957034442146459</v>
+        <v>0.000000000000956598377174624</v>
       </c>
       <c r="F191" t="n">
-        <v>0.000000000229871228582031</v>
+        <v>0.000000000229766489623428</v>
       </c>
       <c r="G191" t="s">
         <v>196</v>
@@ -5437,19 +5437,19 @@
         <v>8142.69066399768</v>
       </c>
       <c r="B192" t="n">
-        <v>-1.28663712481993</v>
+        <v>-1.28663711773336</v>
       </c>
       <c r="C192" t="n">
-        <v>0.186454747051381</v>
+        <v>0.186446776457247</v>
       </c>
       <c r="D192" t="n">
-        <v>-6.90053294521578</v>
+        <v>-6.90082790478487</v>
       </c>
       <c r="E192" t="n">
-        <v>0.00000000000518078042335606</v>
+        <v>0.00000000000517003351861218</v>
       </c>
       <c r="F192" t="n">
-        <v>0.00000000114946528784057</v>
+        <v>0.00000000114727407936582</v>
       </c>
       <c r="G192" t="s">
         <v>197</v>
@@ -5460,19 +5460,19 @@
         <v>227.202131343</v>
       </c>
       <c r="B193" t="n">
-        <v>-1.8210372583254</v>
+        <v>-1.82103761713476</v>
       </c>
       <c r="C193" t="n">
-        <v>0.186194618386608</v>
+        <v>0.186198548943199</v>
       </c>
       <c r="D193" t="n">
-        <v>-9.78028943105249</v>
+        <v>-9.78008490114649</v>
       </c>
       <c r="E193" t="n">
-        <v>0.000000000000000000000136818726928591</v>
+        <v>0.000000000000000000000137095494889157</v>
       </c>
       <c r="F193" t="n">
-        <v>0.00000000000000000015961859049462</v>
+        <v>0.0000000000000000001599414798589</v>
       </c>
       <c r="G193" t="s">
         <v>198</v>
@@ -5483,19 +5483,19 @@
         <v>298.957400795381</v>
       </c>
       <c r="B194" t="n">
-        <v>-1.09898838241516</v>
+        <v>-1.09898827461822</v>
       </c>
       <c r="C194" t="n">
-        <v>0.129871886311329</v>
+        <v>0.129879803467201</v>
       </c>
       <c r="D194" t="n">
-        <v>-8.46209609815522</v>
+        <v>-8.46157943945267</v>
       </c>
       <c r="E194" t="n">
-        <v>0.0000000000000000262613972215718</v>
+        <v>0.0000000000000000263780286900407</v>
       </c>
       <c r="F194" t="n">
-        <v>0.0000000000000129978000248464</v>
+        <v>0.0000000000000130555255331647</v>
       </c>
       <c r="G194" t="s">
         <v>199</v>
@@ -5506,19 +5506,19 @@
         <v>546.824611015847</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.11125422592408</v>
+        <v>-1.11125424439008</v>
       </c>
       <c r="C195" t="n">
-        <v>0.173332250890298</v>
+        <v>0.173330893786603</v>
       </c>
       <c r="D195" t="n">
-        <v>-6.41112210922243</v>
+        <v>-6.4111724119891</v>
       </c>
       <c r="E195" t="n">
-        <v>0.000000000144452434506534</v>
+        <v>0.000000000144404772719382</v>
       </c>
       <c r="F195" t="n">
-        <v>0.00000002432310941026</v>
+        <v>0.0000000243150840497491</v>
       </c>
       <c r="G195" t="s">
         <v>200</v>
@@ -5529,19 +5529,19 @@
         <v>1930.39671155884</v>
       </c>
       <c r="B196" t="n">
-        <v>1.4559427159508</v>
+        <v>1.45594265967396</v>
       </c>
       <c r="C196" t="n">
-        <v>0.201997040942269</v>
+        <v>0.201988588733271</v>
       </c>
       <c r="D196" t="n">
-        <v>7.20774279246451</v>
+        <v>7.20804412172293</v>
       </c>
       <c r="E196" t="n">
-        <v>0.000000000000568869511347475</v>
+        <v>0.000000000000567612402924339</v>
       </c>
       <c r="F196" t="n">
-        <v>0.000000000142943780443666</v>
+        <v>0.000000000142627898107126</v>
       </c>
       <c r="G196" t="s">
         <v>201</v>
@@ -5552,19 +5552,19 @@
         <v>72.4523946329863</v>
       </c>
       <c r="B197" t="n">
-        <v>-1.39529200812982</v>
+        <v>-1.39529260556855</v>
       </c>
       <c r="C197" t="n">
-        <v>0.231617548545605</v>
+        <v>0.231633920902422</v>
       </c>
       <c r="D197" t="n">
-        <v>-6.02412043859054</v>
+        <v>-6.02369722073795</v>
       </c>
       <c r="E197" t="n">
-        <v>0.00000000170031721379738</v>
+        <v>0.00000000170477150407486</v>
       </c>
       <c r="F197" t="n">
-        <v>0.000000222170248423621</v>
+        <v>0.000000222752263808437</v>
       </c>
       <c r="G197" t="s">
         <v>202</v>
@@ -5578,16 +5578,16 @@
         <v>-3.32484768680985</v>
       </c>
       <c r="C198" t="n">
-        <v>0.490774648057066</v>
+        <v>0.490774648057067</v>
       </c>
       <c r="D198" t="n">
-        <v>-6.77469323236771</v>
+        <v>-6.7746932323677</v>
       </c>
       <c r="E198" t="n">
-        <v>0.0000000000124670504988385</v>
+        <v>0.0000000000124670504988394</v>
       </c>
       <c r="F198" t="n">
-        <v>0.0000000026444718934744</v>
+        <v>0.00000000264447189347459</v>
       </c>
       <c r="G198" t="s">
         <v>203</v>
@@ -5598,19 +5598,19 @@
         <v>150.235572158404</v>
       </c>
       <c r="B199" t="n">
-        <v>-1.08238847870159</v>
+        <v>-1.08238834669254</v>
       </c>
       <c r="C199" t="n">
-        <v>0.280442765683333</v>
+        <v>0.28043930426652</v>
       </c>
       <c r="D199" t="n">
-        <v>-3.85956997701194</v>
+        <v>-3.85961714433535</v>
       </c>
       <c r="E199" t="n">
-        <v>0.000113586728340048</v>
+        <v>0.000113564807581799</v>
       </c>
       <c r="F199" t="n">
-        <v>0.00339161249356125</v>
+        <v>0.00339095795655124</v>
       </c>
       <c r="G199" t="s">
         <v>204</v>
@@ -5621,19 +5621,19 @@
         <v>52.2791483804891</v>
       </c>
       <c r="B200" t="n">
-        <v>-1.20017228461704</v>
+        <v>-1.20017235720212</v>
       </c>
       <c r="C200" t="n">
-        <v>0.337369471638677</v>
+        <v>0.337376813270547</v>
       </c>
       <c r="D200" t="n">
-        <v>-3.55744187162977</v>
+        <v>-3.55736467354587</v>
       </c>
       <c r="E200" t="n">
-        <v>0.000374483933639644</v>
+        <v>0.00037459396655419</v>
       </c>
       <c r="F200" t="n">
-        <v>0.00882604053122123</v>
+        <v>0.00882863384665164</v>
       </c>
       <c r="G200" t="s">
         <v>205</v>
@@ -5644,19 +5644,19 @@
         <v>271.101989286721</v>
       </c>
       <c r="B201" t="n">
-        <v>-2.06373593062729</v>
+        <v>-2.06373585502917</v>
       </c>
       <c r="C201" t="n">
-        <v>0.230926095286368</v>
+        <v>0.230922624073665</v>
       </c>
       <c r="D201" t="n">
-        <v>-8.936780956124</v>
+        <v>-8.93691496581486</v>
       </c>
       <c r="E201" t="n">
-        <v>0.000000000000000000400671516038959</v>
+        <v>0.000000000000000000400186090086176</v>
       </c>
       <c r="F201" t="n">
-        <v>0.000000000000000242376587832012</v>
+        <v>0.000000000000000242082941088056</v>
       </c>
       <c r="G201" t="s">
         <v>206</v>
@@ -5667,19 +5667,19 @@
         <v>201.993135665358</v>
       </c>
       <c r="B202" t="n">
-        <v>-1.03405600628431</v>
+        <v>-1.03405606326347</v>
       </c>
       <c r="C202" t="n">
-        <v>0.255987420302106</v>
+        <v>0.255983508598648</v>
       </c>
       <c r="D202" t="n">
-        <v>-4.03947977234177</v>
+        <v>-4.03954172252848</v>
       </c>
       <c r="E202" t="n">
-        <v>0.0000535698874502506</v>
+        <v>0.0000535557408969496</v>
       </c>
       <c r="F202" t="n">
-        <v>0.00183045391574256</v>
+        <v>0.00182997053571104</v>
       </c>
       <c r="G202" t="s">
         <v>207</v>
@@ -5690,19 +5690,19 @@
         <v>59.844565720266</v>
       </c>
       <c r="B203" t="n">
-        <v>-1.03148023536825</v>
+        <v>-1.03148094486987</v>
       </c>
       <c r="C203" t="n">
-        <v>0.306124814214484</v>
+        <v>0.306134638730156</v>
       </c>
       <c r="D203" t="n">
-        <v>-3.36947606816856</v>
+        <v>-3.369370252084</v>
       </c>
       <c r="E203" t="n">
-        <v>0.000753112306912028</v>
+        <v>0.000753401518989487</v>
       </c>
       <c r="F203" t="n">
-        <v>0.0158105183917663</v>
+        <v>0.0158165899867035</v>
       </c>
       <c r="G203" t="s">
         <v>208</v>
@@ -5713,19 +5713,19 @@
         <v>677.532985832376</v>
       </c>
       <c r="B204" t="n">
-        <v>-1.33698331912602</v>
+        <v>-1.33698319963394</v>
       </c>
       <c r="C204" t="n">
-        <v>0.266492525060446</v>
+        <v>0.266479456584186</v>
       </c>
       <c r="D204" t="n">
-        <v>-5.01696367964829</v>
+        <v>-5.01720926923146</v>
       </c>
       <c r="E204" t="n">
-        <v>0.000000524944868233569</v>
+        <v>0.000000524274516398424</v>
       </c>
       <c r="F204" t="n">
-        <v>0.0000366407031318756</v>
+        <v>0.0000365939131467328</v>
       </c>
       <c r="G204" t="s">
         <v>209</v>
@@ -5736,19 +5736,19 @@
         <v>1184.03788149989</v>
       </c>
       <c r="B205" t="n">
-        <v>1.55990810430727</v>
+        <v>1.55990804599147</v>
       </c>
       <c r="C205" t="n">
-        <v>0.233518450231202</v>
+        <v>0.233507281513226</v>
       </c>
       <c r="D205" t="n">
-        <v>6.68002079819745</v>
+        <v>6.68034005570448</v>
       </c>
       <c r="E205" t="n">
-        <v>0.0000000000238908341616703</v>
+        <v>0.0000000000238388433288833</v>
       </c>
       <c r="F205" t="n">
-        <v>0.00000000475864627271416</v>
+        <v>0.00000000474829058647135</v>
       </c>
       <c r="G205" t="s">
         <v>210</v>
@@ -5759,19 +5759,19 @@
         <v>239.438266554488</v>
       </c>
       <c r="B206" t="n">
-        <v>-1.74419626170791</v>
+        <v>-1.74419618061346</v>
       </c>
       <c r="C206" t="n">
-        <v>0.239454941159194</v>
+        <v>0.239451283993913</v>
       </c>
       <c r="D206" t="n">
-        <v>-7.28402702096817</v>
+        <v>-7.28413793203046</v>
       </c>
       <c r="E206" t="n">
-        <v>0.000000000000324000075196568</v>
+        <v>0.000000000000323733667010345</v>
       </c>
       <c r="F206" t="n">
-        <v>0.0000000000867523480030418</v>
+        <v>0.0000000000866810161193437</v>
       </c>
       <c r="G206" t="s">
         <v>211</v>
@@ -5782,19 +5782,19 @@
         <v>52.0796860619421</v>
       </c>
       <c r="B207" t="n">
-        <v>-1.50996609979403</v>
+        <v>-1.50996746299929</v>
       </c>
       <c r="C207" t="n">
-        <v>0.292371554070082</v>
+        <v>0.292385470093477</v>
       </c>
       <c r="D207" t="n">
-        <v>-5.16454517812662</v>
+        <v>-5.16430403506899</v>
       </c>
       <c r="E207" t="n">
-        <v>0.000000241024259584144</v>
+        <v>0.000000241335158822235</v>
       </c>
       <c r="F207" t="n">
-        <v>0.0000183099964269201</v>
+        <v>0.0000183336146467143</v>
       </c>
       <c r="G207" t="s">
         <v>212</v>
@@ -5805,19 +5805,19 @@
         <v>131.546943088939</v>
       </c>
       <c r="B208" t="n">
-        <v>-1.25652066133926</v>
+        <v>-1.2565207207915</v>
       </c>
       <c r="C208" t="n">
-        <v>0.256270648502421</v>
+        <v>0.256271801834831</v>
       </c>
       <c r="D208" t="n">
-        <v>-4.90310017429636</v>
+        <v>-4.90307834024336</v>
       </c>
       <c r="E208" t="n">
-        <v>0.000000943358452028279</v>
+        <v>0.0000009434633562635</v>
       </c>
       <c r="F208" t="n">
-        <v>0.0000603401477426791</v>
+        <v>0.000060302864426636</v>
       </c>
       <c r="G208" t="s">
         <v>213</v>
@@ -5828,19 +5828,19 @@
         <v>145.076665484196</v>
       </c>
       <c r="B209" t="n">
-        <v>-1.17850078911223</v>
+        <v>-1.17850089078758</v>
       </c>
       <c r="C209" t="n">
-        <v>0.324767445725295</v>
+        <v>0.324759586288171</v>
       </c>
       <c r="D209" t="n">
-        <v>-3.62875283414049</v>
+        <v>-3.62884096588871</v>
       </c>
       <c r="E209" t="n">
-        <v>0.000284793744315633</v>
+        <v>0.000284696549896526</v>
       </c>
       <c r="F209" t="n">
-        <v>0.00703711985765088</v>
+        <v>0.0070347182291376</v>
       </c>
       <c r="G209" t="s">
         <v>214</v>
@@ -5851,19 +5851,19 @@
         <v>146.589584939969</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.99474972979945</v>
+        <v>-1.9947498819893</v>
       </c>
       <c r="C210" t="n">
-        <v>0.341067849559665</v>
+        <v>0.341058654195796</v>
       </c>
       <c r="D210" t="n">
-        <v>-5.84854225449502</v>
+        <v>-5.848700384668</v>
       </c>
       <c r="E210" t="n">
-        <v>0.00000000495899677371627</v>
+        <v>0.00000000495428552900301</v>
       </c>
       <c r="F210" t="n">
-        <v>0.000000543592579228912</v>
+        <v>0.000000543076144598699</v>
       </c>
       <c r="G210" t="s">
         <v>215</v>
@@ -5874,19 +5874,19 @@
         <v>814.890026979346</v>
       </c>
       <c r="B211" t="n">
-        <v>-1.43701502402346</v>
+        <v>-1.43701490388975</v>
       </c>
       <c r="C211" t="n">
-        <v>0.197609543522852</v>
+        <v>0.197603723249645</v>
       </c>
       <c r="D211" t="n">
-        <v>-7.27199202227439</v>
+        <v>-7.2722056055304</v>
       </c>
       <c r="E211" t="n">
-        <v>0.000000000000354224520487176</v>
+        <v>0.000000000000353664739285069</v>
       </c>
       <c r="F211" t="n">
-        <v>0.0000000000933153079535008</v>
+        <v>0.0000000000931678417216617</v>
       </c>
       <c r="G211" t="s">
         <v>216</v>
@@ -5897,19 +5897,19 @@
         <v>505.747983779031</v>
       </c>
       <c r="B212" t="n">
-        <v>1.50469915831384</v>
+        <v>1.50469904382381</v>
       </c>
       <c r="C212" t="n">
-        <v>0.193486795794884</v>
+        <v>0.193483386916691</v>
       </c>
       <c r="D212" t="n">
-        <v>7.77675371661529</v>
+        <v>7.77689013926399</v>
       </c>
       <c r="E212" t="n">
-        <v>0.0000000000000074409267214493</v>
+        <v>0.00000000000000743291017318879</v>
       </c>
       <c r="F212" t="n">
-        <v>0.00000000000264201426394416</v>
+        <v>0.00000000000263916786649332</v>
       </c>
       <c r="G212" t="s">
         <v>217</v>
@@ -5920,19 +5920,19 @@
         <v>55.0330113516552</v>
       </c>
       <c r="B213" t="n">
-        <v>-1.03764792269664</v>
+        <v>-1.03764815044924</v>
       </c>
       <c r="C213" t="n">
-        <v>0.317677428738724</v>
+        <v>0.317686043036297</v>
       </c>
       <c r="D213" t="n">
-        <v>-3.26635709315709</v>
+        <v>-3.26626924032253</v>
       </c>
       <c r="E213" t="n">
-        <v>0.00108940778224702</v>
+        <v>0.00108974584318118</v>
       </c>
       <c r="F213" t="n">
-        <v>0.0210571565768528</v>
+        <v>0.0210636909546489</v>
       </c>
       <c r="G213" t="s">
         <v>218</v>
@@ -5943,19 +5943,19 @@
         <v>192.084769033073</v>
       </c>
       <c r="B214" t="n">
-        <v>-1.22703679440086</v>
+        <v>-1.22703675056495</v>
       </c>
       <c r="C214" t="n">
-        <v>0.244861427301325</v>
+        <v>0.244859218977022</v>
       </c>
       <c r="D214" t="n">
-        <v>-5.01114776600101</v>
+        <v>-5.01119278126953</v>
       </c>
       <c r="E214" t="n">
-        <v>0.000000541063465662135</v>
+        <v>0.000000540936894185107</v>
       </c>
       <c r="F214" t="n">
-        <v>0.0000374457185790663</v>
+        <v>0.0000374566733077589</v>
       </c>
       <c r="G214" t="s">
         <v>219</v>
@@ -5966,19 +5966,19 @@
         <v>573.157801670013</v>
       </c>
       <c r="B215" t="n">
-        <v>-1.44987130586277</v>
+        <v>-1.44987124845377</v>
       </c>
       <c r="C215" t="n">
-        <v>0.196688843990513</v>
+        <v>0.19668457369922</v>
       </c>
       <c r="D215" t="n">
-        <v>-7.37139573575763</v>
+        <v>-7.37155548696457</v>
       </c>
       <c r="E215" t="n">
-        <v>0.000000000000168850795599899</v>
+        <v>0.000000000000168648542248992</v>
       </c>
       <c r="F215" t="n">
-        <v>0.0000000000467430516022567</v>
+        <v>0.0000000000467534142673205</v>
       </c>
       <c r="G215" t="s">
         <v>220</v>
@@ -5989,19 +5989,19 @@
         <v>745.784828211925</v>
       </c>
       <c r="B216" t="n">
-        <v>-1.44162262525333</v>
+        <v>-1.44162240584905</v>
       </c>
       <c r="C216" t="n">
-        <v>0.317151583563708</v>
+        <v>0.317132463879835</v>
       </c>
       <c r="D216" t="n">
-        <v>-4.54553185279539</v>
+        <v>-4.54580520774213</v>
       </c>
       <c r="E216" t="n">
-        <v>0.00000547967091547209</v>
+        <v>0.00000547256317842317</v>
       </c>
       <c r="F216" t="n">
-        <v>0.000257923530439209</v>
+        <v>0.000257844493423869</v>
       </c>
       <c r="G216" t="s">
         <v>221</v>
@@ -6012,19 +6012,19 @@
         <v>214.657080441751</v>
       </c>
       <c r="B217" t="n">
-        <v>-2.44158776227393</v>
+        <v>-2.44158701098195</v>
       </c>
       <c r="C217" t="n">
-        <v>0.418971034748235</v>
+        <v>0.418947730118083</v>
       </c>
       <c r="D217" t="n">
-        <v>-5.8275812879072</v>
+        <v>-5.82790366305068</v>
       </c>
       <c r="E217" t="n">
-        <v>0.00000000562364597940933</v>
+        <v>0.00000000561279620728857</v>
       </c>
       <c r="F217" t="n">
-        <v>0.000000600333397265964</v>
+        <v>0.000000600166300652514</v>
       </c>
       <c r="G217" t="s">
         <v>222</v>
@@ -6035,19 +6035,19 @@
         <v>1601.05633349774</v>
       </c>
       <c r="B218" t="n">
-        <v>-1.51406979657444</v>
+        <v>-1.51406970396436</v>
       </c>
       <c r="C218" t="n">
-        <v>0.24885217800362</v>
+        <v>0.248838673777059</v>
       </c>
       <c r="D218" t="n">
-        <v>-6.08421356293056</v>
+        <v>-6.08454337496128</v>
       </c>
       <c r="E218" t="n">
-        <v>0.00000000117064480945078</v>
+        <v>0.00000000116823773622536</v>
       </c>
       <c r="F218" t="n">
-        <v>0.000000158017699774873</v>
+        <v>0.000000157692784675775</v>
       </c>
       <c r="G218" t="s">
         <v>223</v>
@@ -6058,19 +6058,19 @@
         <v>1337.43393191141</v>
       </c>
       <c r="B219" t="n">
-        <v>1.02738191938548</v>
+        <v>1.02738191658163</v>
       </c>
       <c r="C219" t="n">
-        <v>0.282049994937825</v>
+        <v>0.282033098486326</v>
       </c>
       <c r="D219" t="n">
-        <v>3.64255251843547</v>
+        <v>3.64277073185949</v>
       </c>
       <c r="E219" t="n">
-        <v>0.000269947879066421</v>
+        <v>0.000269719056774111</v>
       </c>
       <c r="F219" t="n">
-        <v>0.00679361896578098</v>
+        <v>0.00678786033018729</v>
       </c>
       <c r="G219" t="s">
         <v>224</v>
@@ -6081,19 +6081,19 @@
         <v>100.307492861803</v>
       </c>
       <c r="B220" t="n">
-        <v>-1.65278227684609</v>
+        <v>-1.65278235773549</v>
       </c>
       <c r="C220" t="n">
-        <v>0.277771927732117</v>
+        <v>0.277774658298852</v>
       </c>
       <c r="D220" t="n">
-        <v>-5.95014150760413</v>
+        <v>-5.95008330802192</v>
       </c>
       <c r="E220" t="n">
-        <v>0.000000002679107590532</v>
+        <v>0.00000000268006041798686</v>
       </c>
       <c r="F220" t="n">
-        <v>0.000000324132327971549</v>
+        <v>0.000000324247605977625</v>
       </c>
       <c r="G220" t="s">
         <v>225</v>
@@ -6104,19 +6104,19 @@
         <v>386.933866123239</v>
       </c>
       <c r="B221" t="n">
-        <v>1.40473770709856</v>
+        <v>1.40473763819356</v>
       </c>
       <c r="C221" t="n">
-        <v>0.272678086392707</v>
+        <v>0.272667192408456</v>
       </c>
       <c r="D221" t="n">
-        <v>5.15163402267491</v>
+        <v>5.15183959531612</v>
       </c>
       <c r="E221" t="n">
-        <v>0.000000258226585253338</v>
+        <v>0.000000257943620418223</v>
       </c>
       <c r="F221" t="n">
-        <v>0.000019346856958453</v>
+        <v>0.0000193256566618846</v>
       </c>
       <c r="G221" t="s">
         <v>226</v>
@@ -6127,19 +6127,19 @@
         <v>70.9493484888862</v>
       </c>
       <c r="B222" t="n">
-        <v>-1.12692643760766</v>
+        <v>-1.12692645483621</v>
       </c>
       <c r="C222" t="n">
-        <v>0.357867951379967</v>
+        <v>0.357866844022381</v>
       </c>
       <c r="D222" t="n">
-        <v>-3.14900072292627</v>
+        <v>-3.14901051511141</v>
       </c>
       <c r="E222" t="n">
-        <v>0.00163829789989123</v>
+        <v>0.00163824300444685</v>
       </c>
       <c r="F222" t="n">
-        <v>0.0288966734329628</v>
+        <v>0.0288841323209313</v>
       </c>
       <c r="G222" t="s">
         <v>227</v>
@@ -6150,19 +6150,19 @@
         <v>56.2701123232945</v>
       </c>
       <c r="B223" t="n">
-        <v>-1.09245681549904</v>
+        <v>-1.0924567131039</v>
       </c>
       <c r="C223" t="n">
-        <v>0.323238605981178</v>
+        <v>0.323246444631133</v>
       </c>
       <c r="D223" t="n">
-        <v>-3.37972258042298</v>
+        <v>-3.37964030617734</v>
       </c>
       <c r="E223" t="n">
-        <v>0.000725590285881251</v>
+        <v>0.000725807503287956</v>
       </c>
       <c r="F223" t="n">
-        <v>0.015434974079079</v>
+        <v>0.015430943566185</v>
       </c>
       <c r="G223" t="s">
         <v>228</v>
@@ -6173,19 +6173,19 @@
         <v>59.4528168110959</v>
       </c>
       <c r="B224" t="n">
-        <v>-3.63391549066309</v>
+        <v>-3.63391564146972</v>
       </c>
       <c r="C224" t="n">
-        <v>0.416792861341766</v>
+        <v>0.416794449043313</v>
       </c>
       <c r="D224" t="n">
-        <v>-8.71875655203057</v>
+        <v>-8.71872370136121</v>
       </c>
       <c r="E224" t="n">
-        <v>0.00000000000000000281273607741982</v>
+        <v>0.00000000000000000281355214547074</v>
       </c>
       <c r="F224" t="n">
-        <v>0.00000000000000143563807351556</v>
+        <v>0.00000000000000143605459974917</v>
       </c>
       <c r="G224" t="s">
         <v>229</v>
@@ -6196,19 +6196,19 @@
         <v>140.226111088649</v>
       </c>
       <c r="B225" t="n">
-        <v>-1.14425334605282</v>
+        <v>-1.14425330912126</v>
       </c>
       <c r="C225" t="n">
-        <v>0.270503164096571</v>
+        <v>0.270501570761451</v>
       </c>
       <c r="D225" t="n">
-        <v>-4.230092279602</v>
+        <v>-4.23011705958024</v>
       </c>
       <c r="E225" t="n">
-        <v>0.0000233595467405003</v>
+        <v>0.0000233569736513868</v>
       </c>
       <c r="F225" t="n">
-        <v>0.000897721122147274</v>
+        <v>0.000897622236819061</v>
       </c>
       <c r="G225" t="s">
         <v>230</v>
@@ -6219,19 +6219,19 @@
         <v>112.756714717812</v>
       </c>
       <c r="B226" t="n">
-        <v>-2.18259176516945</v>
+        <v>-2.18259201020867</v>
       </c>
       <c r="C226" t="n">
-        <v>0.4116952228082</v>
+        <v>0.41168086568921</v>
       </c>
       <c r="D226" t="n">
-        <v>-5.30147459638188</v>
+        <v>-5.30166007728999</v>
       </c>
       <c r="E226" t="n">
-        <v>0.000000114871034439752</v>
+        <v>0.000000114754362847268</v>
       </c>
       <c r="F226" t="n">
-        <v>0.00000938094302752234</v>
+        <v>0.00000937141504192217</v>
       </c>
       <c r="G226" t="s">
         <v>231</v>
